--- a/251120_CompHuman-SpatialJCI/Output_JCI/Leading_Edge_Analysis/Leading_Edge_Analysis.xlsx
+++ b/251120_CompHuman-SpatialJCI/Output_JCI/Leading_Edge_Analysis/Leading_Edge_Analysis.xlsx
@@ -10,13 +10,16 @@
     <sheet name="Top_Hub_Genes" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Cross_CellType_Hubs" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Hubs_mySC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Hubs_majorSC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hubs_nmSC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hubs_ImmSC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hubs_majorSC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hubs_aggSC" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t xml:space="preserve">gene</t>
   </si>
@@ -42,142 +45,766 @@
     <t xml:space="preserve">mean_pathway_padj</t>
   </si>
   <si>
+    <t xml:space="preserve">Cav1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | cell adhesion | response to progesterone | regulation of response to stimulus | anatomical structure morphogenesis | response to steroid hormone | cell motility | animal organ development | cell migration | response to endogenous stimulus | regulation of response to external stimulus | system development | positive regulation of cellular process | response to hyperoxia | regulation of signal transduction | intracellular signaling cassette | anatomical structure development | regulation of cellular process | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | positive regulation of biological process | neurogenesis | positive regulation of signaling | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | regulation of developmental process | response to increased oxygen levels | multicellular organism development | response to external stimulus | response to calcium ion | developmental process | tissue development | neuron differentiation | positive regulation of signal transduction | biological regulation | cellular response to growth factor stimulus | regulation of immune system process | response to growth factor | response to oxygen levels | generation of neurons | regulation of signaling | regulation of cell differentiation | regulation of cell communication | blood vessel development | regulation of cell adhesion | vasculature development | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | positive regulation of response to stimulus | signaling | negative regulation of endothelial cell proliferation | cellular response to oxygen levels | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of cell-cell adhesion | cell-cell adhesion | potassium ion transport | positive regulation of cell communication | regulation of neuron differentiation | signal transduction | angiogenesis | negative regulation of BMP signaling pathway | response to wounding | response to mechanical stimulus | response to hormone | positive regulation of cell migration | response to ketone | positive regulation of cell population proliferation | cell surface receptor signaling pathway | cellular response to transforming growth factor beta stimulus | regulation of multicellular organismal development | muscle cell proliferation | negative regulation of developmental process | positive regulation of cell motility | response to transforming growth factor beta | maintenance of protein location | positive regulation of apoptotic process | response to stimulus | positive regulation of locomotion | regulation of vascular associated smooth muscle cell proliferation | positive regulation of programmed cell death | response to lipid | vascular associated smooth muscle cell proliferation | intracellular signal transduction | regulation of ERK1 and ERK2 cascade | blood vessel morphogenesis | negative regulation of cell migration | regulation of metabolic process | regulation of biosynthetic process | response to hypoxia | regulation of cellular response to growth factor stimulus | plasma membrane bounded cell projection organization | positive regulation of intracellular signal transduction | regulation of cell population proliferation | negative regulation of cell motility | nitric oxide biosynthetic process | ERK1 and ERK2 cascade | cell projection organization | vasculogenesis | negative regulation of locomotion | positive regulation of macromolecule metabolic process | cellular component organization | regulation of transport | nitric oxide metabolic process | cellular response to mechanical stimulus | multicellular organismal process | cellular response to external stimulus | reactive nitrogen species metabolic process | response to decreased oxygen levels | regulation of plasma membrane bounded cell projection organization | transforming growth factor beta receptor superfamily signaling pathway | response to metal ion | circulatory system development | regulation of BMP signaling pathway | regulation of cell projection organization | cellular response to chemical stimulus | negative regulation of cellular response to growth factor stimulus | regulation of lipid metabolic process | cellular component organization or biogenesis | regulation of macromolecule metabolic process | MAPK cascade | cellular response to endogenous stimulus | wound healing | cell surface receptor protein serine/threonine kinase signaling pathway | positive regulation of cation transmembrane transport | regulation of epithelial cell proliferation | regulation of intracellular signal transduction | positive regulation of macromolecule biosynthetic process | nitrogen compound transport | positive regulation of monoatomic ion transmembrane transport | regulation of gene expression | positive regulation of metabolic process | regulation of defense response | metal ion transport | regulation of endothelial cell proliferation | regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | cell population proliferation | regulation of response to stress | striated muscle tissue development | transport | negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway | localization | response to chemical | gland morphogenesis | tube morphogenesis | negative regulation of epithelial cell proliferation | epithelial cell proliferation | muscle tissue development | regulation of localization | endothelial cell proliferation | cellular response to stimulus | adaptive thermogenesis | BMP signaling pathway | positive regulation of transport | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of cellular component organization | monoatomic cation transport | gland development | animal organ morphogenesis | cellular response to stress | cellular response to chemical stress | monoatomic ion transport | positive regulation of cellular component organization | regulation of system process | regulation of metal ion transport | regulation of actin filament-based process | potassium ion transmembrane transport | negative regulation of epithelial cell differentiation | skeletal muscle tissue development | import across plasma membrane | skeletal muscle organ development | establishment of localization | Wnt signaling pathway | regulation of blood coagulation | muscle structure development | regulation of monoatomic ion transport | regulation of hemostasis | regulation of coagulation | inorganic cation transmembrane transport | positive regulation of protein modification process | cellular process | supramolecular fiber organization | regulation of canonical Wnt signaling pathway | actin filament-based process | monoatomic cation transmembrane transport | response to peptide hormone | regulation of biological quality | system process | regulation of cytoskeleton organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD, EXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggSC, majorSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col1a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | positive regulation of epithelial to mesenchymal transition | anatomical structure morphogenesis | cellular response to vitamin E | positive regulation of biological process | cellular response to growth factor stimulus | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | negative regulation of cell adhesion | collagen biosynthetic process | regulation of response to stimulus | response to growth factor | regulation of cell adhesion | response to steroid hormone | positive regulation of developmental process | positive regulation of response to stimulus | regulation of epithelial to mesenchymal transition | response to oxygen levels | cellular response to fibroblast growth factor stimulus | positive regulation of signal transduction | cellular response to chemical stimulus | response to fibroblast growth factor | positive regulation of cell differentiation | regulation of cell differentiation | enzyme-linked receptor protein signaling pathway | regulation of developmental process | collagen metabolic process | positive regulation of multicellular organismal process | epithelial to mesenchymal transition | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | system development | cellular response to endogenous stimulus | regulation of multicellular organismal process | blood vessel development | vasculature development | positive regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | mesenchymal cell differentiation | sensory perception of sound | positive regulation of macromolecule metabolic process | cellular response to transforming growth factor beta stimulus | circulatory system development | response to transforming growth factor beta | sensory perception of mechanical stimulus | mesenchyme development | positive regulation of metabolic process | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | response to stress | positive regulation of RNA metabolic process | positive regulation of nucleobase-containing compound metabolic process | positive regulation of cell migration | positive regulation of cell motility | tissue development | positive regulation of locomotion | cell differentiation | cellular developmental process | cell surface receptor protein tyrosine kinase signaling pathway | multicellular organism development | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | regulation of biosynthetic process | cell surface receptor signaling pathway | regulation of macromolecule metabolic process | response to stimulus | response to hormone | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | anatomical structure development | regulation of metabolic process | response to lipid | animal organ morphogenesis | protein localization to nucleus | response to hydrogen peroxide | protein localization to organelle | response to reactive oxygen species | response to glucose | response to hexose | response to monosaccharide | response to carbohydrate | collagen fibril organization | endochondral bone morphogenesis | skin development | cell communication | response to oxidative stress | bone morphogenesis | regulation of cellular process | response to estradiol | localization | homeostatic process | signal transduction | response to oxygen-containing compound | regulation of biological process | nitrogen compound transport | visual perception | sensory perception of light stimulus | biological regulation | transport | cellular response to amino acid stimulus | cellular response to glucose stimulus | signaling | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | animal organ development | cellular response to acid chemical | cellular response to carbohydrate stimulus | intracellular glucose homeostasis | establishment of localization | protein transport | response to amino acid | cartilage development | bone development | response to acid chemical | intracellular protein localization | response to mechanical stimulus | skeletal system morphogenesis | head development | AGE-RAGE signaling pathway in diabetic complications | Protein digestion and absorption | Amoebiasis | Platelet activation | Relaxin signaling pathway | Diabetic cardiomyopathy | Cytoskeleton in muscle cells | embryo development | connective tissue development | cell-substrate adhesion | response to peptide hormone | cellular response to stimulus | skeletal system development | chordate embryonic development | embryo development ending in birth or egg hatching | negative regulation of biological process | response to hyperoxia | response to increased oxygen levels | response to external stimulus | developmental process | regulation of signaling | regulation of cell communication | cellular component organization | cellular response to mechanical stimulus | multicellular organismal process | cellular response to external stimulus | cellular component organization or biogenesis | PI3K-Akt signaling pathway | cellular response to aldehyde | negative regulation of cell-substrate adhesion | Wnt signaling pathway | regulation of cell-substrate adhesion | cellular response to nutrient levels | system process | response to nutrient levels | nervous system process | cellular response to abiotic stimulus | cellular response to environmental stimulus | cellular process | regulation of canonical Wnt signaling pathway | regulation of primary metabolic process | DNA-templated transcription | response to insulin | regulation of RNA metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD, DRvsHFD, EXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, majorSC, aggSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rgcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | positive regulation of epithelial to mesenchymal transition | anatomical structure morphogenesis | negative regulation of exit from mitosis | positive regulation of biological process | cellular response to growth factor stimulus | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | negative regulation of cell adhesion | collagen biosynthetic process | regulation of response to stimulus | response to growth factor | regulation of cell adhesion | positive regulation of developmental process | regulation of anatomical structure morphogenesis | positive regulation of response to stimulus | regulation of epithelial to mesenchymal transition | response to oxygen levels | cell-cell adhesion | cellular response to chemical stimulus | positive regulation of cell differentiation | regulation of cell differentiation | enzyme-linked receptor protein signaling pathway | positive regulation of cell population proliferation | regulation of developmental process | collagen metabolic process | regulation of cell-cell adhesion | intracellular signaling cassette | positive regulation of multicellular organismal process | cellular response to hypoxia | epithelial to mesenchymal transition | regulation of endothelial cell migration | anatomical structure formation involved in morphogenesis | cellular response to decreased oxygen levels | response to abiotic stimulus | system development | cellular response to endogenous stimulus | cellular response to oxygen levels | regulation of multicellular organismal process | blood vessel development | vasculature development | positive regulation of macromolecule biosynthetic process | negative regulation of cell-cell adhesion | positive regulation of biosynthetic process | endothelial cell migration | mesenchymal cell differentiation | positive regulation of macromolecule metabolic process | cellular response to transforming growth factor beta stimulus | circulatory system development | muscle cell proliferation | response to transforming growth factor beta | regulation of angiogenesis | regulation of vasculature development | mesenchyme development | positive regulation of metabolic process | regulation of multicellular organismal development | regulation of epithelial cell proliferation | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | response to stress | positive regulation of RNA metabolic process | epithelial cell proliferation | positive regulation of nucleobase-containing compound metabolic process | positive regulation of cytokine production | angiogenesis | tissue development | cell differentiation | cellular developmental process | multicellular organism development | blood vessel morphogenesis | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | regulation of biosynthetic process | regulation of cytokine production | cytokine production | cell surface receptor signaling pathway | regulation of macromolecule metabolic process | response to stimulus | tube morphogenesis | intracellular signal transduction | negative regulation of developmental process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | anatomical structure development | regulation of metabolic process | animal organ development | regulation of cellular process | regulation of biological process | developmental process | biological regulation | regulation of immune system process | signaling | negative regulation of endothelial cell proliferation | cell communication | signal transduction | positive regulation of apoptotic process | regulation of vascular associated smooth muscle cell proliferation | positive regulation of programmed cell death | vascular associated smooth muscle cell proliferation | negative regulation of cell migration | response to hypoxia | regulation of cell population proliferation | negative regulation of cell motility | negative regulation of locomotion | cellular component organization | regulation of transport | multicellular organismal process | response to decreased oxygen levels | transforming growth factor beta receptor superfamily signaling pathway | cellular component organization or biogenesis | cell surface receptor protein serine/threonine kinase signaling pathway | regulation of endothelial cell proliferation | cell population proliferation | transport | localization | negative regulation of epithelial cell proliferation | regulation of localization | endothelial cell proliferation | cellular response to stimulus | positive regulation of transport | regulation of cellular component organization | cellular response to stress | actin filament bundle assembly | positive regulation of cellular component organization | actin filament bundle organization | regulation of actin filament-based process | export from cell | establishment of localization | cellular process | supramolecular fiber organization | actin filament-based process | regulation of cytoskeleton organization | regulation of G1/S transition of mitotic cell cycle | negative regulation of mitotic cell cycle phase transition | regulation of cell cycle G1/S phase transition | G1/S transition of mitotic cell cycle | negative regulation of mitotic cell cycle | cell cycle G1/S phase transition | negative regulation of cell cycle phase transition | regulation of primary metabolic process | DNA-templated transcription | negative regulation of cell cycle process | regulation of RNA metabolic process | regulation of mitotic cell cycle phase transition | regulation of cellular component biogenesis | regulation of actin cytoskeleton organization | negative regulation of cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, aggSC, majorSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fgf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | anatomical structure morphogenesis | positive regulation of biological process | cellular response to growth factor stimulus | regulation of response to stimulus | response to growth factor | positive regulation of developmental process | regulation of anatomical structure morphogenesis | positive regulation of response to stimulus | cellular response to fibroblast growth factor stimulus | positive regulation of signal transduction | cellular response to chemical stimulus | response to fibroblast growth factor | enzyme-linked receptor protein signaling pathway | positive regulation of cell population proliferation | regulation of developmental process | intracellular signaling cassette | positive regulation of multicellular organismal process | positive regulation of catalytic activity | neurogenesis | positive regulation of cell communication | positive regulation of signaling | regulation of endothelial cell migration | regulation of signal transduction | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | system development | cellular response to endogenous stimulus | regulation of multicellular organismal process | blood vessel development | vasculature development | positive regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | endothelial cell migration | positive regulation of macromolecule metabolic process | circulatory system development | muscle cell proliferation | regulation of angiogenesis | regulation of vasculature development | positive regulation of metabolic process | regulation of multicellular organismal development | regulation of epithelial cell proliferation | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | response to stress | positive regulation of RNA metabolic process | epithelial cell proliferation | positive regulation of nucleobase-containing compound metabolic process | angiogenesis | positive regulation of cell migration | positive regulation of cell motility | tissue development | positive regulation of locomotion | cell differentiation | cellular developmental process | cell surface receptor protein tyrosine kinase signaling pathway | multicellular organism development | blood vessel morphogenesis | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | MAPK cascade | regulation of biosynthetic process | cell surface receptor signaling pathway | regulation of macromolecule metabolic process | response to stimulus | tube morphogenesis | intracellular signal transduction | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | anatomical structure development | regulation of metabolic process | animal organ morphogenesis | animal organ development | regulation of response to external stimulus | regulation of cellular process | nervous system development | regulation of biological process | response to external stimulus | developmental process | biological regulation | regulation of signaling | regulation of cell communication | signaling | cell communication | signal transduction | response to wounding | developmental growth involved in morphogenesis | regulation of ERK1 and ERK2 cascade | regulation of cellular response to growth factor stimulus | positive regulation of intracellular signal transduction | regulation of cell population proliferation | ERK1 and ERK2 cascade | vasculogenesis | regulation of steroid biosynthetic process | multicellular organismal process | regulation of lipid metabolic process | wound healing | regulation of steroid metabolic process | regulation of intracellular signal transduction | chemotaxis | taxis | cell population proliferation | striated muscle tissue development | gland morphogenesis | muscle tissue development | cellular response to stimulus | growth | developmental growth | cardiac muscle tissue growth | heart growth | lung development | respiratory tube development | respiratory system development | heart development | tissue morphogenesis | PI3K-Akt signaling pathway | regulation of cell division | regionalization | pattern specification process | gland development | liver development | hepaticobiliary system development | cellular response to stress | positive regulation of protein modification process | cellular process | regulation of primary metabolic process | DNA-templated transcription | regulation of RNA metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular signal transduction | cell communication | cell migration | integrin-mediated signaling pathway | regulation of cell migration | regulation of cellular process | regulation of cell motility | intracellular signaling cassette | cell motility | regulation of locomotion | response to chemical | signal transduction | response to stimulus | regulation of biological process | biological regulation | regulation of axonogenesis | locomotion | tissue development | signaling | animal organ development | positive regulation of cellular process | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | mesenchymal cell differentiation | head development | positive regulation of biological process | regulation of response to stimulus | anatomical structure morphogenesis | regulation of response to external stimulus | system development | regulation of signal transduction | anatomical structure development | neurogenesis | positive regulation of signaling | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of developmental process | multicellular organism development | response to external stimulus | developmental process | neuron differentiation | positive regulation of signal transduction | regulation of immune system process | generation of neurons | regulation of signaling | regulation of cell differentiation | regulation of cell communication | positive regulation of response to stimulus | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | positive regulation of cell communication | positive regulation of cell differentiation | positive regulation of developmental process | positive regulation of cell migration | cell surface receptor signaling pathway | regulation of multicellular organismal development | developmental growth involved in morphogenesis | positive regulation of cell motility | positive regulation of locomotion | regulation of ERK1 and ERK2 cascade | regulation of metabolic process | mesenchyme development | regulation of biosynthetic process | plasma membrane bounded cell projection organization | positive regulation of intracellular signal transduction | neuron projection development | ERK1 and ERK2 cascade | cell projection organization | positive regulation of macromolecule metabolic process | cellular component organization | multicellular organismal process | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | cellular component organization or biogenesis | regulation of macromolecule metabolic process | MAPK cascade | neuron development | regulation of intracellular signal transduction | positive regulation of macromolecule biosynthetic process | regulation of cytokine production | regulation of gene expression | cytokine production | positive regulation of metabolic process | regulation of defense response | regulation of macromolecule biosynthetic process | chemotaxis | taxis | positive regulation of biosynthetic process | regulation of response to stress | cellular response to stimulus | cell growth | regulation of cell growth | regulation of growth | growth | neural crest cell differentiation | regulation of cell development | regulation of neurogenesis | cell development | developmental growth | regulation of nervous system development | developmental cell growth | positive regulation of neurogenesis | cell morphogenesis | regulation of cellular component organization | positive regulation of nervous system development | central nervous system development | positive regulation of cell development | positive regulation of cellular component organization | neuron projection extension | positive regulation of cell projection organization | brain development | cellular process | axonogenesis | regulation of biological quality | regulation of neuron projection development | axon development | cell morphogenesis involved in neuron differentiation | positive regulation of axonogenesis | regulation of axon extension | regulation of developmental growth | regulation of extent of cell growth | axon extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD, DRvsHFD, EXvsHFD, DREXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majorSC, aggSC, ImmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | response to endogenous stimulus | positive regulation of cellular process | anatomical structure morphogenesis | positive regulation of biological process | regulation of response to stimulus | response to steroid hormone | positive regulation of developmental process | regulation of anatomical structure morphogenesis | positive regulation of response to stimulus | response to oxygen levels | positive regulation of signal transduction | cellular response to chemical stimulus | positive regulation of cell differentiation | positive regulation of neuron differentiation | regulation of cell differentiation | positive regulation of cell population proliferation | regulation of developmental process | intracellular signaling cassette | positive regulation of multicellular organismal process | cellular response to hypoxia | neurogenesis | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction | cellular response to decreased oxygen levels | response to abiotic stimulus | system development | myelination | ensheathment of neurons | axon ensheathment | cellular response to oxygen levels | regulation of multicellular organismal process | animal organ development | anatomical structure development | regulation of cellular process | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | multicellular organism development | developmental process | tissue development | neuron differentiation | biological regulation | generation of neurons | regulation of signaling | regulation of cell communication | signaling | cell communication | regulation of neuron differentiation | signal transduction | response to hormone | regulation of multicellular organismal development | developmental growth involved in morphogenesis | negative regulation of developmental process | positive regulation of apoptotic process | response to stimulus | positive regulation of programmed cell death | response to lipid | intracellular signal transduction | regulation of metabolic process | regulation of biosynthetic process | response to hypoxia | plasma membrane bounded cell projection organization | positive regulation of intracellular signal transduction | regulation of cell population proliferation | neuron projection development | cell projection organization | cellular component organization | neuron projection morphogenesis | multicellular organismal process | response to decreased oxygen levels | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | cellular component organization or biogenesis | regulation of macromolecule metabolic process | neuron development | regulation of intracellular signal transduction | regulation of cytokine production | regulation of gene expression | cytokine production | regulation of macromolecule biosynthetic process | cell population proliferation | striated muscle tissue development | response to chemical | muscle tissue development | cellular response to stimulus | adaptive thermogenesis | cell growth | growth | developmental growth | astrocyte differentiation | gliogenesis | regulation of nervous system development | developmental cell growth | positive regulation of myelination | glial cell differentiation | positive regulation of nervous system process | regulation of myelination | regulation of nervous system process | cell development | central nervous system development | cell morphogenesis | muscle structure development | skeletal muscle cell differentiation | behavior | system process | nervous system process | neuron projection extension | skeletal muscle tissue development | response to glucocorticoid | response to corticosteroid | cellular response to stress | regulation of system process | skeletal muscle organ development | long-term synaptic potentiation | cellular process | regulation of biological quality | negative regulation of cell differentiation | response to oxygen-containing compound | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mag</t>
   </si>
   <si>
-    <t xml:space="preserve">positive regulation of myelination | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | positive regulation of gliogenesis | regulation of glial cell differentiation | cellular response to mechanical stimulus | cellular response to external stimulus | regulation of gliogenesis | regulation of nervous system process | myelination | positive regulation of cell differentiation | ensheathment of neurons | axon ensheathment | anatomical structure morphogenesis | response to mechanical stimulus | anatomical structure formation involved in morphogenesis | glial cell differentiation | positive regulation of neurogenesis | cell adhesion | positive regulation of developmental process | positive regulation of nervous system development | cellular response to abiotic stimulus | cellular response to environmental stimulus | gliogenesis | regulation of cell differentiation | regulation of neurogenesis | system development | axonogenesis | positive regulation of multicellular organismal process | positive regulation of cell development | axon development | regulation of nervous system development | regulation of system process | cell differentiation | cellular developmental process | multicellular organism development | cell morphogenesis involved in neuron differentiation | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | nervous system process | regulation of developmental process | regulation of cell development | Cell adhesion molecule (CAM) interaction | neuron projection development | neuron development | positive regulation of astrocyte differentiation | cell development | regulation of cell growth | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | negative regulation of cell growth | cell growth | cell projection organization | cell morphogenesis | regulation of astrocyte differentiation | neurogenesis | negative regulation of growth | regulation of growth | regulation of multicellular organismal process | positive regulation of cellular process | anatomical structure development | regulation of multicellular organismal development | positive regulation of biological process | nervous system development | astrocyte differentiation | developmental process | regulation of axon extension | central nervous system development | growth | regulation of extent of cell growth | axon extension | cellular component organization | regulation of neuron projection development | negative regulation of multicellular organismal process | cellular component organization or biogenesis | regulation of axonogenesis | regulation of cellular process | neuron projection extension | regulation of biological process | regulation of cell size | negative regulation of neuron apoptotic process | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | regulation of neuron differentiation | multicellular organismal process | biological regulation | response to external stimulus | developmental growth involved in morphogenesis | response to stress | developmental cell growth | regulation of anatomical structure morphogenesis | negative regulation of cell development | cell-cell adhesion | regulation of neuron apoptotic process | negative regulation of developmental process | neuron apoptotic process | regulation of developmental growth | regulation of cellular component size</t>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of cell differentiation | system development | regulation of developmental process | positive regulation of myelination | glial cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal development | gliogenesis | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | regulation of cell differentiation | developmental process | regulation of multicellular organismal process | cell growth | positive regulation of gliogenesis | neurogenesis | nervous system development | regulation of nervous system development | regulation of glial cell differentiation | astrocyte differentiation | cell adhesion | cellular component organization | positive regulation of astrocyte differentiation | positive regulation of neurogenesis | cellular component organization or biogenesis | growth | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | regulation of gliogenesis | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | anatomical structure formation involved in morphogenesis | regulation of nervous system process | regulation of cell growth | cell development | positive regulation of multicellular organismal process | neuron development | negative regulation of cell growth | regulation of neurogenesis | regulation of astrocyte differentiation | myelination | ensheathment of neurons | axon ensheathment | regulation of cell development | positive regulation of cell development | negative regulation of growth | regulation of neuron differentiation | central nervous system development | response to mechanical stimulus | cell morphogenesis | developmental growth involved in morphogenesis | developmental cell growth | regulation of growth | positive regulation of cellular process | multicellular organismal process | response to abiotic stimulus | positive regulation of biological process | cellular response to mechanical stimulus | cellular response to external stimulus | developmental growth | transmission of nerve impulse | regulation of anatomical structure morphogenesis | axonogenesis | regulation of biological process | regulation of axonogenesis | system process | regulation of neuron projection development | axon development | response to wounding | biological regulation | regulation of cellular component organization | nervous system process | neuron projection extension | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | response to stress | cellular response to stress | cell-cell adhesion | regulation of system process | negative regulation of developmental process | regulation of cellular process | cellular process | regulation of biological quality | cell morphogenesis involved in neuron differentiation | regulation of axon extension | regulation of developmental growth | regulation of extent of cell growth | axon extension | negative regulation of neuron differentiation | negative regulation of cell projection organization | negative regulation of cell differentiation | cell-cell adhesion via plasma-membrane adhesion molecules | Cell adhesion molecule (CAM) interaction | negative regulation of neuron projection development | negative regulation of axonogenesis | axon regeneration | neuron projection regeneration | response to axon injury | cell communication | negative regulation of neurogenesis | negative regulation of nervous system development | negative regulation of cellular component organization | negative regulation of neuron apoptotic process | regeneration | negative regulation of cell development | regulation of neuron apoptotic process | IgSF CAM signaling | negative regulation of cellular process | negative regulation of biological process | response to external stimulus | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXvsHFD, DREXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, majorSC, aggSC, nmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of cell differentiation | system development | regulation of developmental process | positive regulation of myelination | glial cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal development | gliogenesis | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | regulation of cell differentiation | developmental process | regulation of multicellular organismal process | animal organ development | cranial nerve structural organization | positive regulation of gliogenesis | neurogenesis | nervous system development | regulation of nervous system development | regulation of glial cell differentiation | nerve development | cellular component organization | positive regulation of neurogenesis | cellular component organization or biogenesis | neuron differentiation | anatomical structure arrangement | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | regulation of gliogenesis | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | anatomical structure formation involved in morphogenesis | regulation of nervous system process | cranial nerve morphogenesis | cell development | positive regulation of multicellular organismal process | neuron development | regulation of neurogenesis | striated muscle tissue development | myelination | ensheathment of neurons | axon ensheathment | muscle tissue development | regulation of cell development | positive regulation of cell development | tissue development | rhombomere formation | rhombomere structural organization | rhombomere 3 structural organization | rhombomere 3 formation | rhombomere 5 morphogenesis | rhombomere 5 structural organization | rhombomere 5 formation | central nervous system development | cranial nerve development | cell morphogenesis | positive regulation of cellular process | rhythmic behavior | multicellular organismal process | muscle structure development | positive regulation of biological process | skeletal muscle cell differentiation | head development | behavior | regionalization | pattern specification process | response to endogenous stimulus | axonogenesis | regulation of biological process | system process | axon development | biological regulation | hindbrain development | nervous system process | skeletal muscle tissue development | response to hormone | circulatory system development | regulation of system process | transport | skeletal muscle organ development | establishment of localization | brain development | blood vessel development | regulation of cellular process | cellular process | localization | response to chemical | vasculature development | response to peptide hormone | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | positive regulation of RNA metabolic process | positive regulation of macromolecule metabolic process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | regulation of primary metabolic process | DNA-templated transcription | positive regulation of nucleobase-containing compound metabolic process | response to insulin | regulation of RNA metabolic process | positive regulation of metabolic process | cell morphogenesis involved in neuron differentiation | response to oxygen-containing compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serpine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of sodium ion transport | growth | system development | sodium ion transport | seminal vesicle epithelium development | nervous system development | sensory perception of mechanical stimulus | negative regulation of cell adhesion | response to abiotic stimulus | neurogenesis | positive regulation of cell communication | positive regulation of signaling | anatomical structure morphogenesis | cell differentiation | cellular developmental process | regulation of cell adhesion | multicellular organism development | astrocyte differentiation | tissue development | regulation of smoothened signaling pathway | regulation of metal ion transport | gliogenesis | wound healing | regulation of multicellular organismal development | regulation of multicellular organismal process | cell-cell adhesion | regulation of biological process | animal organ development | regulation of monoatomic ion transport | generation of neurons | regulation of cell-cell adhesion | cell growth | biological regulation | regulation of cell growth | regulation of growth | negative regulation of multicellular organismal process | regulation of developmental process | regulation of cell development | regulation of neurogenesis | cellular component organization | positive regulation of cell differentiation | anatomical structure development | neuron differentiation | cell development | regulation of nervous system development | response to mechanical stimulus | response to stress | positive regulation of cellular process | intracellular signaling cassette | positive regulation of multicellular organismal process | head development | positive regulation of biological process | cell surface receptor signaling pathway | positive regulation of developmental process | glial cell differentiation | positive regulation of glial cell differentiation | regulation of cell differentiation | developmental process | positive regulation of gliogenesis | regulation of glial cell differentiation | nerve development | positive regulation of astrocyte differentiation | positive regulation of neurogenesis | cellular component organization or biogenesis | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | regulation of gliogenesis | cell projection organization | neuron development | negative regulation of cell growth | regulation of astrocyte differentiation | positive regulation of cell development | negative regulation of growth | central nervous system development | multicellular organismal process | behavior | metal ion transport | monoatomic cation transport | gland development | system process | regulation of neuron projection development | response to wounding | regulation of transport | regulation of cellular component organization | hindbrain development | nervous system process | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | monoatomic ion transport | positive regulation of cellular component organization | transport | positive regulation of cell projection organization | regulation of response to stimulus | export from cell | establishment of localization | brain development | regulation of blood coagulation | regulation of hemostasis | regulation of coagulation | long-term synaptic potentiation | regulation of cellular process | cellular process | localization | regulation of biological quality | regulation of signal transduction | regulation of signaling | regulation of cell communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRvsHFD, EXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col3a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to hormone | intracellular signal transduction | collagen fibril organization | endochondral bone morphogenesis | cell adhesion | skin development | cell communication | cell migration | response to endogenous stimulus | integrin-mediated signaling pathway | regulation of cell migration | bone morphogenesis | regulation of cellular process | regulation of cell motility | intracellular signaling cassette | cell motility | regulation of locomotion | response to chemical | homeostatic process | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | biological regulation | locomotion | tissue development | cellular response to amino acid stimulus | signaling | animal organ development | cellular response to acid chemical | positive regulation of cellular process | neuron migration | response to amino acid | cartilage development | bone development | response to acid chemical | skeletal system morphogenesis | head development | positive regulation of biological process | AGE-RAGE signaling pathway in diabetic complications | Protein digestion and absorption | Amoebiasis | Platelet activation | Relaxin signaling pathway | Diabetic cardiomyopathy | Cytoskeleton in muscle cells | cellular response to transforming growth factor beta stimulus | response to transforming growth factor beta | tissue homeostasis | anatomical structure homeostasis | embryo development | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | connective tissue development | cell-substrate adhesion | small GTPase-mediated signal transduction | response to peptide hormone | cellular response to stimulus | skeletal system development | cellular response to growth factor stimulus | response to growth factor | blood vessel development | supramolecular fiber organization | vasculature development | chordate embryonic development | cytokine production | embryo development ending in birth or egg hatching | negative regulation of biological process | anatomical structure morphogenesis | muscle tissue development | growth | system development | nervous system development | response to abiotic stimulus | neurogenesis | positive regulation of cell communication | positive regulation of signaling | cell differentiation | cellular developmental process | multicellular organism development | developmental growth | gliogenesis | wound healing | positive regulation of signal transduction | generation of neurons | response to stress | enzyme-linked receptor protein signaling pathway | lung development | respiratory tube development | animal organ morphogenesis | respiratory system development | circulatory system development | anatomical structure formation involved in morphogenesis | cellular response to endogenous stimulus | response to wounding | regulation of response to stimulus | blood vessel morphogenesis | heart development | tissue morphogenesis | positive regulation of response to stimulus | cellular response to chemical stimulus | anatomical structure development | cell surface receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD, DRvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majorSC, mySC, aggSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | response to endogenous stimulus | positive regulation of cellular process | anatomical structure morphogenesis | positive regulation of biological process | negative regulation of cell adhesion | regulation of cell adhesion | response to steroid hormone | regulation of anatomical structure morphogenesis | cell-cell adhesion | regulation of cell differentiation | regulation of developmental process | regulation of cell-cell adhesion | intracellular signaling cassette | positive regulation of multicellular organismal process | neurogenesis | system development | myelination | ensheathment of neurons | axon ensheathment | regulation of multicellular organismal process | positive regulation of macromolecule biosynthetic process | negative regulation of cell-cell adhesion | positive regulation of biosynthetic process | sensory perception of sound | positive regulation of macromolecule metabolic process | sensory perception of mechanical stimulus | positive regulation of metabolic process | regulation of multicellular organismal development | positive regulation of cytokine production | cell differentiation | cellular developmental process | multicellular organism development | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | MAPK cascade | regulation of biosynthetic process | regulation of cytokine production | cytokine production | regulation of macromolecule metabolic process | response to stimulus | intracellular signal transduction | response to hormone | negative regulation of developmental process | anatomical structure development | regulation of metabolic process | response to lipid | response to progesterone | response to ketone | cell communication | regulation of cellular process | homeostatic process | signal transduction | response to oxygen-containing compound | regulation of biological process | biological regulation | regulation of axonogenesis | signaling | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | cell-cell adhesion via plasma-membrane adhesion molecules | tissue homeostasis | anatomical structure homeostasis | embryo development | cellular response to stimulus | negative regulation of biological process | nervous system development | developmental process | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | cell projection organization | cellular component organization | multicellular organismal process | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | cellular component organization or biogenesis | neuron development | negative regulation of neuron projection development | negative regulation of multicellular organismal process | regulation of cell development | regulation of neurogenesis | cell development | system process | regulation of nervous system development | negative regulation of cell projection organization | negative regulation of axonogenesis | regulation of neuron projection development | axon development | negative regulation of neurogenesis | negative regulation of nervous system development | negative regulation of cellular component organization | negative regulation of cell development | cell morphogenesis | IgSF CAM signaling | gastrulation | negative regulation of cellular process | negative regulation of cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD, DRvsHFD, DREXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, majorSC, aggSC, nmSC, ImmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to steroid hormone | response to hydrogen peroxide | protein localization to organelle | response to hormone | response to reactive oxygen species | response to glucose | response to hexose | response to monosaccharide | intracellular signal transduction | response to ketone | response to carbohydrate | cell communication | cell migration | response to endogenous stimulus | response to oxidative stress | regulation of cellular process | cell motility | response to lipid | localization | response to chemical | homeostatic process | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | nitrogen compound transport | biological regulation | transport | cellular response to glucose stimulus | signaling | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | animal organ development | cellular response to carbohydrate stimulus | intracellular glucose homeostasis | establishment of localization | neuron migration | neuron projection morphogenesis | protein transport | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | intracellular protein localization | system development | anatomical structure morphogenesis | multicellular organism development | regulation of multicellular organismal process | animal organ morphogenesis | cellular response to glucocorticoid stimulus | negative regulation of multicellular organismal process | cellular response to corticosteroid stimulus | regulation of developmental process | cell differentiation | cellular developmental process | Wnt signaling pathway | cellular component organization | anatomical structure development | neuron differentiation | cellular response to ketone | cell development | nervous system development | developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | neuron development | response to glucocorticoid | response to corticosteroid | multicellular organismal process | cellular response to chemical stimulus | cell morphogenesis | regulation of anatomical structure morphogenesis | cellular response to endogenous stimulus | response to stress | cellular response to stress | cellular response to chemical stress | circulatory system development | cellular response to steroid hormone stimulus | regulation of response to stimulus | negative regulation of developmental process | export from cell | cellular process | cell surface receptor signaling pathway | regulation of biological quality | regulation of signal transduction | regulation of signaling | regulation of cell communication | negative regulation of neuron apoptotic process | regulation of neuron apoptotic process | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majorSC, aggSC, nmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nbl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | anatomical structure morphogenesis | positive regulation of biological process | cellular response to growth factor stimulus | regulation of response to stimulus | response to growth factor | positive regulation of developmental process | cellular response to chemical stimulus | positive regulation of cell differentiation | positive regulation of neuron differentiation | regulation of cell differentiation | enzyme-linked receptor protein signaling pathway | regulation of developmental process | neurogenesis | regulation of signal transduction | system development | cellular response to endogenous stimulus | regulation of response to external stimulus | anatomical structure development | regulation of cellular process | cell differentiation | cellular developmental process | nervous system development | regulation of biological process | multicellular organism development | response to external stimulus | developmental process | neuron differentiation | biological regulation | regulation of immune system process | generation of neurons | regulation of signaling | regulation of cell communication | signaling | cell communication | regulation of neuron differentiation | signal transduction | negative regulation of BMP signaling pathway | cell surface receptor signaling pathway | maintenance of protein location | response to stimulus | negative regulation of cell migration | regulation of cellular response to growth factor stimulus | plasma membrane bounded cell projection organization | negative regulation of cell motility | neuron projection development | cell projection organization | negative regulation of locomotion | cellular component organization | neuron projection morphogenesis | multicellular organismal process | plasma membrane bounded cell projection morphogenesis | transforming growth factor beta receptor superfamily signaling pathway | cell projection morphogenesis | regulation of BMP signaling pathway | negative regulation of cellular response to growth factor stimulus | cellular component organization or biogenesis | cell surface receptor protein serine/threonine kinase signaling pathway | neuron development | chemotaxis | taxis | negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway | localization | response to chemical | cellular response to stimulus | BMP signaling pathway | cell development | cell morphogenesis | regionalization | pattern specification process | cellular process | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD, EXvsHFD, DREXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fam107a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell growth | cell growth | negative regulation of cell adhesion | regulation of growth | response to steroid hormone | system development | regulation of cell adhesion | regulation of cell migration | cell migration | multicellular organism development | regulation of cell motility | growth | regulation of locomotion | negative regulation of cell-substrate adhesion | cellular response to glucocorticoid stimulus | cell motility | cellular response to corticosteroid stimulus | locomotion | cellular component organization | anatomical structure development | response to hormone | response to lipid | regulation of cell-substrate adhesion | cellular response to nutrient levels | system process | cell-substrate adhesion | response to endogenous stimulus | response to nutrient levels | positive regulation of cell migration | positive regulation of cell motility | positive regulation of locomotion | nervous system development | developmental process | cellular component organization or biogenesis | response to glucocorticoid | response to corticosteroid | multicellular organismal process | cellular response to chemical stimulus | regulation of cellular component organization | cellular response to endogenous stimulus | positive regulation of cellular process | actin filament bundle assembly | biological regulation | positive regulation of biological process | actin filament bundle organization | regulation of actin filament-based process | regulation of biological process | cellular response to steroid hormone stimulus | long-term synaptic potentiation | positive regulation of protein modification process | regulation of cellular process | cellular process | supramolecular fiber organization | response to chemical | actin filament-based process | regulation of biological quality | regulation of cytoskeleton organization | regulation of G1/S transition of mitotic cell cycle | negative regulation of mitotic cell cycle phase transition | regulation of cell cycle G1/S phase transition | G1/S transition of mitotic cell cycle | negative regulation of mitotic cell cycle | cell cycle G1/S phase transition | negative regulation of cell cycle phase transition | positive regulation of macromolecule metabolic process | regulation of primary metabolic process | negative regulation of cell cycle process | synapse assembly | regulation of mitotic cell cycle phase transition | positive regulation of metabolic process | regulation of cellular component biogenesis | regulation of actin cytoskeleton organization | negative regulation of cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majorSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpp5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of response to stimulus | cell motility | regulation of response to external stimulus | system development | positive regulation of cellular process | regulation of signal transduction | intracellular signaling cassette | anatomical structure development | regulation of cellular process | positive regulation of biological process | neurogenesis | positive regulation of signaling | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | regulation of developmental process | multicellular organism development | response to external stimulus | developmental process | neuron differentiation | biological regulation | generation of neurons | regulation of signaling | regulation of cell communication | signaling | cell communication | signal transduction | response to wounding | negative regulation of developmental process | response to stimulus | intracellular signal transduction | regulation of metabolic process | plasma membrane bounded cell projection organization | neuron projection development | cell projection organization | dephosphorylation | positive regulation of macromolecule metabolic process | cellular component organization | regulation of transport | multicellular organismal process | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | cellular component organization or biogenesis | regulation of macromolecule metabolic process | neuron development | regulation of intracellular signal transduction | positive regulation of metabolic process | regulation of response to stress | transport | localization | negative regulation of neuron projection development | regulation of localization | cellular response to stimulus | negative regulation of cell projection organization | axon regeneration | neuron projection regeneration | response to axon injury | regulation of neuron projection development | axon development | negative regulation of cellular component organization | regeneration | establishment of localization | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD, DREXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggSC, nmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Txnip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to steroid hormone | protein localization to nucleus | response to hydrogen peroxide | protein localization to organelle | response to hormone | response to progesterone | response to reactive oxygen species | response to glucose | response to hexose | response to monosaccharide | response to ketone | response to carbohydrate | skin development | cell communication | response to endogenous stimulus | response to oxidative stress | regulation of cellular process | response to estradiol | response to lipid | localization | response to chemical | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | nitrogen compound transport | response to calcium ion | biological regulation | transport | tissue development | protein import into nucleus | signaling | animal organ development | import into nucleus | establishment of localization | positive regulation of cellular process | protein transport | intracellular protein localization | response to mechanical stimulus | positive regulation of biological process | anatomical structure development | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | response to stress | response to external stimulus | developmental process | response to abiotic stimulus | cell surface receptor signaling pathway | positive regulation of apoptotic process | positive regulation of programmed cell death | regulation of metabolic process | regulation of biosynthetic process | regulation of cell population proliferation | response to metal ion | regulation of macromolecule metabolic process | regulation of gene expression | regulation of macromolecule biosynthetic process | cell population proliferation | cellular response to stimulus | regulation of cell division | keratinocyte differentiation | epidermal cell differentiation | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular process | positive regulation of biological process | regulation of response to stimulus | positive regulation of response to stimulus | positive regulation of signal transduction | cellular response to chemical stimulus | positive regulation of cell population proliferation | intracellular signaling cassette | positive regulation of catalytic activity | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction | protein localization to nucleus | protein localization to organelle | intracellular signal transduction | cell communication | regulation of cellular process | localization | response to chemical | homeostatic process | signal transduction | response to stimulus | regulation of biological process | nitrogen compound transport | response to calcium ion | biological regulation | regulation of protein localization to nucleus | transport | protein import into nucleus | signaling | import into nucleus | establishment of localization | protein transport | intracellular protein localization | sodium ion transport | regulation of signaling | regulation of cell communication | regulation of metabolic process | regulation of biosynthetic process | positive regulation of intracellular signal transduction | regulation of cell population proliferation | dephosphorylation | positive regulation of macromolecule metabolic process | regulation of transport | response to metal ion | regulation of macromolecule metabolic process | regulation of intracellular signal transduction | positive regulation of macromolecule biosynthetic process | regulation of gene expression | positive regulation of metabolic process | metal ion transport | regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | cell population proliferation | regulation of localization | cellular response to stimulus | positive regulation of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFDvsSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of cell differentiation | system development | regulation of developmental process | glial cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal development | gliogenesis | regulation of cell differentiation | developmental process | regulation of multicellular organismal process | neurogenesis | nervous system development | regulation of nervous system development | cellular component organization | positive regulation of neurogenesis | cellular component organization or biogenesis | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | cell development | positive regulation of multicellular organismal process | neuron development | regulation of neurogenesis | regulation of cell development | positive regulation of cell development | cell morphogenesis | positive regulation of cellular process | multicellular organismal process | positive regulation of biological process | regulation of anatomical structure morphogenesis | axonogenesis | regulation of biological process | regulation of axonogenesis | regulation of neuron projection development | axon development | biological regulation | regulation of cellular component organization | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | positive regulation of cellular component organization | positive regulation of cell projection organization | regulation of cellular process | cellular process | cell morphogenesis involved in neuron differentiation | positive regulation of axonogenesis</t>
   </si>
   <si>
     <t xml:space="preserve">EXvsHFD</t>
   </si>
   <si>
-    <t xml:space="preserve">mySC, majorSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sema7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell differentiation | anatomical structure morphogenesis | positive regulation of developmental process | regulation of cell differentiation | regulation of developmental process | neuron projection development | positive regulation of neurogenesis | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | system development | neuron development | positive regulation of nervous system development | cell development | regulation of cell growth | regulation of cell development | cell migration | regulation of neurogenesis | neuron differentiation | cell differentiation | cellular developmental process | multicellular organism development | regulation of cell migration | generation of neurons | plasma membrane bounded cell projection organization | cell growth | cell projection organization | regulation of cell motility | positive regulation of cell development | cell morphogenesis | regulation of locomotion | regulation of nervous system development | cell motility | neurogenesis | regulation of growth | mesenchymal cell differentiation | locomotion | regulation of multicellular organismal process | animal organ development | positive regulation of cellular process | mesenchyme development | head development | anatomical structure development | regulation of multicellular organismal development | positive regulation of biological process | nervous system development | neural crest cell differentiation | developmental process | regulation of axon extension | cell surface receptor signaling pathway | central nervous system development | positive regulation of multicellular organismal process | growth | regulation of extent of cell growth | axonogenesis | axon extension | regulation of signal transduction | cellular component organization | regulation of neuron projection development | axon development | cellular component organization or biogenesis | tissue development | regulation of axonogenesis | regulation of cellular process | cell morphogenesis involved in neuron differentiation | neuron projection extension | regulation of biological process | regulation of cell size | regulation of signaling | regulation of cell communication | brain development | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | multicellular organismal process | biological regulation | axon guidance | neuron projection guidance | response to external stimulus | developmental growth involved in morphogenesis | response to stress | developmental cell growth | regulation of response to stimulus | stem cell differentiation | regulation of anatomical structure morphogenesis | regulation of developmental growth | regulation of cellular component size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">majorSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serpine2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell differentiation | anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of glial cell differentiation | regulation of cell differentiation | regulation of developmental process | neuron projection development | positive regulation of gliogenesis | positive regulation of neurogenesis | regulation of glial cell differentiation | system development | neuron development | positive regulation of astrocyte differentiation | positive regulation of nervous system development | cell development | regulation of cell growth | regulation of gliogenesis | regulation of cell development | regulation of neurogenesis | neuron differentiation | cell differentiation | cellular developmental process | multicellular organism development | generation of neurons | plasma membrane bounded cell projection organization | negative regulation of cell growth | cell growth | cell projection organization | positive regulation of cell development | regulation of nervous system development | regulation of astrocyte differentiation | neurogenesis | negative regulation of growth | regulation of growth | response to mechanical stimulus | regulation of multicellular organismal process | glial cell differentiation | animal organ development | positive regulation of cellular process | cell adhesion | head development | seminal vesicle epithelium development | anatomical structure development | regulation of multicellular organismal development | regulation of sodium ion transport | positive regulation of biological process | gliogenesis | nervous system development | astrocyte differentiation | developmental process | nerve development | cell surface receptor signaling pathway | central nervous system development | positive regulation of multicellular organismal process | growth | regulation of signal transduction | cellular component organization | regulation of neuron projection development | negative regulation of multicellular organismal process | cellular component organization or biogenesis | tissue development | regulation of cellular process | hindbrain development | negative regulation of signal transduction | regulation of biological process | regulation of signaling | regulation of cell communication | brain development | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | negative regulation of signaling | negative regulation of cell communication | multicellular organismal process | biological regulation | regulation of cell adhesion | sodium ion transport | response to external stimulus | protein processing | response to stress | regulation of response to stimulus | sensory perception of mechanical stimulus | negative regulation of response to stimulus | cell-cell adhesion | negative regulation of cell adhesion | export from cell | regulation of metal ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of myelination | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | positive regulation of gliogenesis | regulation of glial cell differentiation | rhombomere formation | rhombomere structural organization | rhombomere 3 structural organization | rhombomere 3 formation | rhombomere 5 morphogenesis | rhombomere 5 structural organization | rhombomere 5 formation | regulation of gliogenesis | regulation of nervous system process | myelination | positive regulation of cell differentiation | ensheathment of neurons | axon ensheathment | anatomical structure morphogenesis | anatomical structure formation involved in morphogenesis | glial cell differentiation | response to insulin | positive regulation of neurogenesis | positive regulation of developmental process | positive regulation of nervous system development | gliogenesis | regulation of cell differentiation | regulation of neurogenesis | ossification | system development | axonogenesis | positive regulation of multicellular organismal process | response to peptide hormone | positive regulation of cell development | axon development | regulation of nervous system development | regulation of system process | cell differentiation | cellular developmental process | multicellular organism development | cell morphogenesis involved in neuron differentiation | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | blood vessel development | head development | nervous system process | vasculature development | regulation of developmental process | regulation of cell development | neuron projection development | neuron development | cell development | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | cell morphogenesis | neurogenesis | regulation of multicellular organismal process | animal organ development | positive regulation of cellular process | anatomical structure development | regulation of multicellular organismal development | positive regulation of biological process | nervous system development | developmental process | nerve development | central nervous system development | cellular component organization | cellular component organization or biogenesis | tissue development | regulation of cellular process | hindbrain development | regulation of biological process | brain development | multicellular organismal process | biological regulation | response to endogenous stimulus | axon guidance | neuron projection guidance | fat cell differentiation | response to hormone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col1a1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to mechanical stimulus | cellular response to external stimulus | cellular response to vitamin E | positive regulation of cell differentiation | anatomical structure morphogenesis | response to mechanical stimulus | anatomical structure formation involved in morphogenesis | response to insulin | cell adhesion | positive regulation of developmental process | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of cell differentiation | ossification | system development | positive regulation of multicellular organismal process | response to peptide hormone | cell differentiation | cellular developmental process | multicellular organism development | blood vessel development | head development | nervous system process | vasculature development | regulation of developmental process | Cytoskeleton in muscle cells | cell migration | regulation of cell migration | regulation of cell motility | regulation of locomotion | cell motility | mesenchymal cell differentiation | locomotion | regulation of multicellular organismal process | animal organ development | positive regulation of cellular process | mesenchyme development | anatomical structure development | positive regulation of biological process | developmental process | cell surface receptor signaling pathway | Wnt signaling pathway | response to hydrogen peroxide | animal organ morphogenesis | regulation of signal transduction | cellular component organization | cellular component organization or biogenesis | tissue development | regulation of cellular process | cellular response to glucose stimulus | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | cellular response to carbohydrate stimulus | regulation of biological process | intracellular glucose homeostasis | regulation of signaling | regulation of cell communication | response to reactive oxygen species | cartilage development | multicellular organismal process | biological regulation | response to glucose | response to endogenous stimulus | regulation of canonical Wnt signaling pathway | regulation of cell adhesion | response to hexose | response to monosaccharide | response to external stimulus | response to stress | response to carbohydrate | regulation of response to stimulus | canonical Wnt signaling pathway | sensory perception of mechanical stimulus | negative regulation of cell adhesion | regulation of Wnt signaling pathway | glucose homeostasis | carbohydrate homeostasis | connective tissue development | response to hormone | response to steroid hormone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cpe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anatomical structure morphogenesis | regulation of developmental process | neuron projection development | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | system development | neuron development | cell development | cell migration | neuron differentiation | cell differentiation | cellular developmental process | multicellular organism development | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | cell morphogenesis | cell motility | neurogenesis | regulation of multicellular organismal process | animal organ development | anatomical structure development | nervous system development | developmental process | cell surface receptor signaling pathway | Wnt signaling pathway | response to hydrogen peroxide | animal organ morphogenesis | regulation of signal transduction | cellular component organization | negative regulation of multicellular organismal process | cellular component organization or biogenesis | regulation of cellular process | cellular response to glucose stimulus | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | negative regulation of signal transduction | cellular response to carbohydrate stimulus | regulation of biological process | intracellular glucose homeostasis | regulation of signaling | regulation of cell communication | response to reactive oxygen species | negative regulation of neuron apoptotic process | negative regulation of signaling | negative regulation of cell communication | multicellular organismal process | biological regulation | response to glucose | response to endogenous stimulus | response to hexose | response to monosaccharide | protein processing | response to stress | response to carbohydrate | regulation of response to stimulus | regulation of anatomical structure morphogenesis | negative regulation of response to stimulus | regulation of neuron apoptotic process | glucose homeostasis | carbohydrate homeostasis | response to hormone | response to steroid hormone | negative regulation of developmental process | export from cell | neuron apoptotic process</t>
+    <t xml:space="preserve">Gpm6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | animal organ development | cellular component organization | neuron differentiation | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | cell migration | neuron development | cell motility | multicellular organismal process | cell morphogenesis | regulation of cellular component organization | metal ion transport | cell development | regulation of plasma membrane bounded cell projection organization | monoatomic cation transport | regulation of cell projection organization | positive regulation of cellular process | monoatomic ion transport | biological regulation | positive regulation of cellular component organization | positive regulation of biological process | transport | regulation of biological process | positive regulation of cell projection organization | establishment of localization | inorganic cation transmembrane transport | regulation of cellular process | cellular process | localization | monoatomic cation transmembrane transport | regulation of biological quality | synapse assembly | regulation of cellular component biogenesis | cell junction assembly | retina development in camera-type eye | regulation of plasma membrane bounded cell projection assembly | regulation of cell projection assembly | neuron migration</t>
   </si>
   <si>
     <t xml:space="preserve">Frzb</t>
   </si>
   <si>
-    <t xml:space="preserve">positive regulation of cell differentiation | anatomical structure morphogenesis | positive regulation of developmental process | regulation of cell differentiation | regulation of developmental process | system development | cell development | regulation of cell growth | regulation of cell development | cell differentiation | cellular developmental process | multicellular organism development | negative regulation of cell growth | cell growth | negative regulation of growth | regulation of growth | mesenchymal cell differentiation | regulation of multicellular organismal process | animal organ development | positive regulation of cellular process | mesenchyme development | negative regulation of hepatocyte differentiation | anatomical structure development | regulation of multicellular organismal development | positive regulation of biological process | neural crest cell differentiation | developmental process | cell surface receptor signaling pathway | Wnt signaling pathway | growth | animal organ morphogenesis | regulation of signal transduction | cellular component organization | negative regulation of multicellular organismal process | cellular component organization or biogenesis | tissue development | regulation of cellular process | negative regulation of signal transduction | regulation of biological process | regulation of signaling | regulation of cell communication | cartilage development | negative regulation of signaling | negative regulation of cell communication | multicellular organismal process | biological regulation | regulation of canonical Wnt signaling pathway | fat cell differentiation | regulation of response to stimulus | stem cell differentiation | negative regulation of cell development | canonical Wnt signaling pathway | negative regulation of response to stimulus | regulation of Wnt signaling pathway | connective tissue development | sensory organ morphogenesis | embryonic organ morphogenesis | negative regulation of developmental process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbl1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell differentiation | anatomical structure morphogenesis | positive regulation of developmental process | regulation of cell differentiation | regulation of developmental process | neuron projection development | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | system development | neuron development | cell development | cell migration | neuron differentiation | cell differentiation | cellular developmental process | multicellular organism development | regulation of cell migration | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | regulation of cell motility | cell morphogenesis | regulation of locomotion | cell motility | neurogenesis | locomotion | positive regulation of cellular process | anatomical structure development | positive regulation of biological process | nervous system development | developmental process | cell surface receptor signaling pathway | regulation of signal transduction | cellular component organization | cellular component organization or biogenesis | regulation of cellular process | negative regulation of signal transduction | regulation of biological process | regulation of signaling | regulation of cell communication | negative regulation of signaling | negative regulation of cell communication | regulation of leukocyte migration | regulation of neuron differentiation | multicellular organismal process | biological regulation | response to endogenous stimulus | response to external stimulus | regulation of response to stimulus | negative regulation of response to stimulus | leukocyte migration</t>
+    <t xml:space="preserve">regulation of cell growth | cell growth | regulation of growth | system development | anatomical structure morphogenesis | multicellular organism development | growth | mesenchymal cell differentiation | negative regulation of hepatocyte differentiation | regulation of multicellular organismal process | animal organ morphogenesis | animal organ development | mesenchyme development | negative regulation of multicellular organismal process | regulation of developmental process | sensory organ morphogenesis | neural crest cell differentiation | cell differentiation | cellular developmental process | regulation of cell development | regulation of multicellular organismal development | Wnt signaling pathway | cellular component organization | positive regulation of cell differentiation | anatomical structure development | cell development | positive regulation of developmental process | regulation of cell differentiation | developmental process | cellular component organization or biogenesis | negative regulation of cell growth | tissue development | negative regulation of growth | positive regulation of cellular process | multicellular organismal process | positive regulation of biological process | regulation of biological process | gland development | liver development | hepaticobiliary system development | biological regulation | regulation of cellular component organization | negative regulation of epithelial cell differentiation | regulation of response to stimulus | negative regulation of developmental process | regulation of cellular process | cellular process | regulation of canonical Wnt signaling pathway | cell surface receptor signaling pathway | regulation of signal transduction | regulation of signaling | regulation of cell communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcna2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | animal organ development | system development | anatomical structure development | regulation of cellular process | nervous system development | regulation of biological process | multicellular organism development | developmental process | biological regulation | signaling | cell communication | regulation of multicellular organismal process | potassium ion transport | export across plasma membrane | cellular component organization | regulation of transport | multicellular organismal process | cellular component organization or biogenesis | nitrogen compound transport | metal ion transport | transport | localization | regulation of localization | cranial nerve structural organization | nerve development | anatomical structure arrangement | cranial nerve morphogenesis | central nervous system development | cranial nerve development | rhythmic behavior | head development | behavior | transmission of nerve impulse | monoatomic cation transport | system process | nervous system process | potassium ion export across plasma membrane | monoatomic ion transport | potassium ion transmembrane transport | export from cell | establishment of localization | brain development | inorganic cation transmembrane transport | cellular process | monoatomic cation transmembrane transport | regulation of biological quality | action potential | regulation of presynaptic membrane potential | regulation of postsynaptic membrane potential | IgSF CAM signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggSC, mySC, majorSC, nmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rap1gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of neuron differentiation | cell adhesion | negative regulation of microvillus assembly | regulation of thyroid gland epithelial cell proliferation | negative regulation of thyroid gland epithelial cell proliferation | thyroid gland epithelial cell proliferation | negative regulation of neuron differentiation | multicellular organism development | negative regulation of cell projection organization | nervous system development | negative regulation of cell differentiation | neuron differentiation | cellular component organization | generation of neurons | regulation of cell differentiation | plasma membrane bounded cell projection organization | system development | cell projection organization | cellular component organization or biogenesis | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | neurogenesis | cell-cell adhesion | response to endogenous stimulus | anatomical structure development | regulation of multicellular organismal process | localization | animal organ development | transport | negative regulation of developmental process | developmental process | establishment of localization | regulation of developmental process | multicellular organismal process | cell differentiation | cellular developmental process | regulation of plasma membrane bounded cell projection assembly | regulation of cell projection assembly | cell communication | regulation of response to stimulus | regulation of biological process | biological regulation | regulation of signaling | regulation of cell communication | regulation of signal transduction | negative regulation of cellular process | regulation of cellular process | negative regulation of cellular component organization | intracellular signaling cassette | negative regulation of biological process | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DREXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, ImmSC, majorSC, aggSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col14a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | collagen fibril organization | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | muscle tissue development | growth | system development | tissue homeostasis | anatomical structure homeostasis | cell differentiation | cellular developmental process | multicellular organism development | developmental growth | tissue development | regulation of multicellular organismal development | regulation of multicellular organismal process | cardiac muscle tissue growth | cardiac muscle hypertrophy | striated muscle hypertrophy | muscle hypertrophy | regulation of biological process | heart growth | animal organ development | striated muscle tissue development | cell growth | biological regulation | Protein digestion and absorption | regulation of cell growth | regulation of growth | regulation of developmental process | cellular component organization | anatomical structure development | cell development | developmental cell growth | developmental process | cellular component organization or biogenesis | multicellular organismal process | muscle structure development | system process | regulation of cellular component organization | circulatory system development | regulation of cellular process | cellular process | regulation of developmental growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slc2a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | animal organ development | cellular component organization | cellular component organization or biogenesis | response to abiotic stimulus | cellular response to mechanical stimulus | response to endogenous stimulus | cellular response to external stimulus | cellular response to abiotic stimulus | cellular response to environmental stimulus | response to mechanical stimulus | response to hormone | multicellular organismal process | cellular response to chemical stimulus | response to oxygen levels | central nervous system development | head development | response to stress | cellular response to stress | response to hypoxia | cellular hyperosmotic response | fucose transmembrane transport | cellular response to chemical stress | response to decreased oxygen levels | hyperosmotic response | transport | import across plasma membrane | establishment of localization | brain development | cellular process | localization | response to chemical | cellular response to osmotic stress | response to peptide hormone | system process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cldn19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | cell communication | cell migration | regulation of cell migration | regulation of cellular process | regulation of cell motility | cell motility | regulation of locomotion | localization | regulation of biological process | visual perception | sensory perception of light stimulus | biological regulation | locomotion | transport | tissue development | animal organ development | establishment of localization | positive regulation of cellular process | positive regulation of biological process | cell-cell adhesion via plasma-membrane adhesion molecules | transmission of nerve impulse | multicellular organism development | action potential | cellular component organization | system development | cellular component organization or biogenesis | Cell adhesion molecule (CAM) interaction | anatomical structure development | developmental process | cell junction assembly | multicellular organismal process | retina development in camera-type eye | cell-cell adhesion | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igfbp7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of response to stimulus | anatomical structure morphogenesis | animal organ development | system development | regulation of signal transduction | anatomical structure development | regulation of cellular process | regulation of biological process | multicellular organism development | developmental process | biological regulation | regulation of signaling | regulation of cell communication | blood vessel development | vasculature development | anatomical structure formation involved in morphogenesis | signaling | cell communication | signal transduction | angiogenesis | response to stimulus | blood vessel morphogenesis | regulation of metabolic process | regulation of biosynthetic process | regulation of steroid biosynthetic process | cellular component organization | multicellular organismal process | circulatory system development | regulation of lipid metabolic process | cellular component organization or biogenesis | regulation of steroid metabolic process | tube morphogenesis | cellular response to stimulus | cell growth | regulation of cell growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efhd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | cellular component organization | neuron differentiation | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | response to abiotic stimulus | neuron development | cellular response to abiotic stimulus | cellular response to environmental stimulus | multicellular organismal process | cellular response to chemical stimulus | cell development | response to stress | cellular response to stress | cellular hyperosmotic response | cellular response to chemical stress | hyperosmotic response | biological regulation | regulation of biological process | regulation of response to stimulus | regulation of cellular process | cellular process | response to chemical | cellular response to osmotic stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of response to stimulus | animal organ development | regulation of response to external stimulus | anatomical structure development | regulation of cellular process | cell differentiation | cellular developmental process | response to stress | regulation of biological process | response to external stimulus | developmental process | tissue development | biological regulation | regulation of immune system process | response to wounding | response to stimulus | regulation of metabolic process | regulation of biosynthetic process | skin development | cellular component organization | multicellular organismal process | cellular component organization or biogenesis | regulation of macromolecule metabolic process | wound healing | regulation of gene expression | regulation of defense response | regulation of macromolecule biosynthetic process | regulation of response to stress | keratinocyte differentiation | epidermal cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fxyd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular process | positive regulation of biological process | regulation of cellular process | localization | regulation of biological process | biological regulation | transport | establishment of localization | sodium ion transport | potassium ion transport | export across plasma membrane | regulation of transport | positive regulation of cation transmembrane transport | positive regulation of monoatomic ion transmembrane transport | metal ion transport | regulation of localization | positive regulation of transport | regulation of sodium ion transport | regulation of metal ion transport | regulation of monoatomic ion transport | monoatomic cation transport | monoatomic ion transport | export from cell | inorganic cation transmembrane transport | cellular process | monoatomic cation transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | regulation of developmental process | cell differentiation | cellular developmental process | anatomical structure development | developmental process | cellular component organization | cellular component organization or biogenesis | plasma membrane bounded cell projection organization | cell projection organization | anatomical structure formation involved in morphogenesis | positive regulation of cellular process | muscle structure development | positive regulation of biological process | regulation of biological process | regulation of transport | biological regulation | regulation of cellular component organization | positive regulation of cellular component organization | transport | establishment of localization | regulation of cellular process | cellular process | localization | actin filament-based process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | anatomical structure morphogenesis | cell-cell adhesion | neurogenesis | anatomical structure formation involved in morphogenesis | system development | animal organ development | anatomical structure development | cell differentiation | cellular developmental process | nervous system development | multicellular organism development | developmental process | neuron differentiation | generation of neurons | cellular component organization | multicellular organismal process | cellular component organization or biogenesis | animal organ morphogenesis | sensory organ morphogenesis | eye morphogenesis | cellular process | cell-cell adhesion via plasma-membrane adhesion molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, aggSC, majorSC, ImmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mmp15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | multicellular organism development | anatomical structure development | developmental process | cell differentiation | cellular developmental process | cellular component organization | cellular component organization or biogenesis | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | tissue development | anatomical structure formation involved in morphogenesis | multicellular organismal process | collagen metabolic process | response to lipid | cellular process | response to chemical | response to oxygen-containing compound | gastrulation | response to estradiol | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development | multicellular organism development | anatomical structure development | developmental process | animal organ development | response to steroid hormone | response to endogenous stimulus | response to glucocorticoid | response to hormone | response to corticosteroid | multicellular organismal process | cellular response to glucocorticoid stimulus | cellular response to chemical stimulus | cellular response to corticosteroid stimulus | cellular response to endogenous stimulus | response to lipid | gland development | liver development | hepaticobiliary system development | cellular response to steroid hormone stimulus | cellular process | response to chemical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scube1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular process | positive regulation of biological process | regulation of response to stimulus | positive regulation of response to stimulus | positive regulation of signal transduction | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction | regulation of cellular process | regulation of biological process | biological regulation | regulation of signaling | regulation of cell communication | signaling | cell communication | signal transduction | cell surface receptor signaling pathway | response to stimulus | cellular response to stimulus | regulation of smoothened signaling pathway | cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mlip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of multicellular organismal process | cardiac muscle hypertrophy | striated muscle hypertrophy | muscle hypertrophy | regulation of biological process | biological regulation | response to stress | response to stimulus | regulation of response to stimulus | regulation of cellular process | negative regulation of multicellular organismal process | system process | multicellular organismal process | regulation of system process | cellular process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | regulation of primary metabolic process | DNA-templated transcription | regulation of RNA metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slc7a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of response to stimulus | regulation of multicellular organismal process | regulation of cellular process | localization | response to stimulus | regulation of biological process | nitrogen compound transport | biological regulation | transport | establishment of localization | regulation of response to external stimulus | response to stress | response to external stimulus | regulation of immune system process | nitric oxide biosynthetic process | nitric oxide metabolic process | multicellular organismal process | reactive nitrogen species metabolic process | regulation of defense response | regulation of response to stress</t>
   </si>
   <si>
     <t xml:space="preserve">Chst2</t>
   </si>
   <si>
-    <t xml:space="preserve">cell migration | regulation of cell migration | regulation of cell motility | regulation of locomotion | cell motility | locomotion | positive regulation of cellular process | cell adhesion | positive regulation of biological process | regulation of cellular process | regulation of biological process | regulation of leukocyte migration | biological regulation | regulation of cell adhesion | response to stress | cell-cell adhesion | leukocyte migration</t>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | positive regulation of cellular process | cell motility | positive regulation of biological process | regulation of cell adhesion | cell-cell adhesion | regulation of cell-cell adhesion | response to stress | response to stimulus | regulation of cellular process | regulation of biological process | biological regulation | regulation of immune system process | cellular process</t>
   </si>
   <si>
     <t xml:space="preserve">Mfap5</t>
   </si>
   <si>
-    <t xml:space="preserve">anatomical structure morphogenesis | system development | cell differentiation | cellular developmental process | multicellular organism development | cell development | animal organ development | anatomical structure development | developmental process | animal organ morphogenesis | cellular component organization | cellular component organization or biogenesis | multicellular organismal process | sensory organ morphogenesis | embryonic organ morphogenesis</t>
+    <t xml:space="preserve">system development | anatomical structure morphogenesis | multicellular organism development | animal organ morphogenesis | animal organ development | sensory organ morphogenesis | cell differentiation | cellular developmental process | cellular component organization | anatomical structure development | cell development | developmental process | cellular component organization or biogenesis | multicellular organismal process | eye morphogenesis | cellular process | supramolecular fiber organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcnk5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export across plasma membrane | metal ion transport | potassium ion transport | potassium ion export across plasma membrane | monoatomic cation transport | monoatomic ion transport | biological regulation | transport | potassium ion transmembrane transport | import across plasma membrane | export from cell | establishment of localization | inorganic cation transmembrane transport | cellular process | localization | monoatomic cation transmembrane transport | regulation of biological quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dclk3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein localization to nucleus | protein localization to organelle | intracellular signal transduction | cell communication | regulation of cellular process | localization | signal transduction | response to stimulus | regulation of biological process | biological regulation | regulation of protein localization to nucleus | signaling | intracellular protein localization | cellular response to stimulus | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grik3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of presynaptic membrane potential | regulation of biological process | cell communication | biological regulation | regulation of postsynaptic membrane potential | transport | establishment of localization | regulation of signaling | regulation of cell communication | negative regulation of cellular process | regulation of cellular process | intracellular signaling cassette | negative regulation of biological process | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmSC, aggSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kank4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular component organization | cellular component organization or biogenesis | regulation of cellular component organization | actin filament bundle assembly | biological regulation | actin filament bundle organization | regulation of actin filament-based process | regulation of biological process | regulation of cellular process | cellular process | supramolecular fiber organization | actin filament-based process | regulation of biological quality | regulation of cytoskeleton organization</t>
   </si>
   <si>
     <t xml:space="preserve">Sdc3</t>
   </si>
   <si>
-    <t xml:space="preserve">cell adhesion | Cell adhesion molecule (CAM) interaction | Cytoskeleton in muscle cells | cell migration | regulation of cell migration | regulation of cell motility | regulation of locomotion | cell motility | locomotion | regulation of cellular process | regulation of biological process | biological regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fxyd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cellular process | regulation of sodium ion transport | positive regulation of biological process | regulation of cellular process | regulation of biological process | biological regulation | sodium ion transport | export from cell | regulation of metal ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to progesterone | cell-cell adhesion via plasma-membrane adhesion molecules | response to ketone | response to steroid hormone | cell adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFDvsSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Txnip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to progesterone | response to ketone | response to steroid hormone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cldn19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell-cell adhesion via plasma-membrane adhesion molecules | cell adhesion</t>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | cell motility | regulation of cellular process | regulation of biological process | biological regulation | Cytoskeleton in muscle cells | cellular process | Cell adhesion molecule (CAM) interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nkain2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of sodium ion transport | sodium ion transport | regulation of metal ion transport | regulation of biological process | regulation of monoatomic ion transport | biological regulation | metal ion transport | monoatomic cation transport | regulation of transport | monoatomic ion transport | transport | establishment of localization | localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRvsHFD, EXvsHFD, DREXvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, aggSC, majorSC, nmSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rnd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular signal transduction | cell communication | regulation of cellular process | intracellular signaling cassette | signal transduction | response to stimulus | regulation of biological process | biological regulation | signaling | small GTPase-mediated signal transduction | cellular response to stimulus | supramolecular fiber organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crip1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to abiotic stimulus | cellular response to abiotic stimulus | cellular response to environmental stimulus | cellular response to chemical stimulus | response to stress | cellular response to stress | biological regulation | regulation of biological process | regulation of cellular process | cellular process | response to chemical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tle2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell communication | regulation of response to stimulus | regulation of biological process | biological regulation | regulation of signaling | regulation of cell communication | regulation of signal transduction | negative regulation of cellular process | regulation of cellular process | negative regulation of biological process | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development | nervous system development | cell differentiation | cellular developmental process | multicellular organism development | regulation of biological process | biological regulation | regulation of cell division | anatomical structure development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRvsHFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySC, aggSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adamtsl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | cellular component organization | cellular component organization or biogenesis | cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pmp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular component organization | cellular component organization or biogenesis | transport | establishment of localization | cellular process | localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure development | developmental process | cell differentiation | cellular developmental process | tissue development | cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tns1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell migration | cellular component organization | cellular component organization or biogenesis | cell motility | cell junction assembly</t>
   </si>
   <si>
     <t xml:space="preserve">Adam23</t>
   </si>
   <si>
-    <t xml:space="preserve">cell adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of myelination | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | positive regulation of gliogenesis | regulation of glial cell differentiation | rhombomere formation | rhombomere structural organization | rhombomere 3 structural organization | rhombomere 3 formation | rhombomere 5 morphogenesis | rhombomere 5 structural organization | rhombomere 5 formation | regulation of gliogenesis | regulation of nervous system process | myelination | positive regulation of cell differentiation | ensheathment of neurons | axon ensheathment | anatomical structure morphogenesis | anatomical structure formation involved in morphogenesis | glial cell differentiation | response to insulin | positive regulation of neurogenesis | positive regulation of developmental process | positive regulation of nervous system development | gliogenesis | regulation of cell differentiation | regulation of neurogenesis | ossification | system development | axonogenesis | positive regulation of multicellular organismal process | response to peptide hormone | positive regulation of cell development | axon development | regulation of nervous system development | regulation of system process | cell differentiation | cellular developmental process | multicellular organism development | cell morphogenesis involved in neuron differentiation | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | blood vessel development | head development | nervous system process | vasculature development | regulation of developmental process | regulation of cell development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of myelination | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | positive regulation of gliogenesis | regulation of glial cell differentiation | cellular response to mechanical stimulus | cellular response to external stimulus | regulation of gliogenesis | regulation of nervous system process | myelination | positive regulation of cell differentiation | ensheathment of neurons | axon ensheathment | anatomical structure morphogenesis | response to mechanical stimulus | anatomical structure formation involved in morphogenesis | glial cell differentiation | positive regulation of neurogenesis | cell adhesion | positive regulation of developmental process | positive regulation of nervous system development | cellular response to abiotic stimulus | cellular response to environmental stimulus | gliogenesis | regulation of cell differentiation | regulation of neurogenesis | system development | axonogenesis | positive regulation of multicellular organismal process | positive regulation of cell development | axon development | regulation of nervous system development | regulation of system process | cell differentiation | cellular developmental process | multicellular organism development | cell morphogenesis involved in neuron differentiation | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | nervous system process | regulation of developmental process | regulation of cell development | Cell adhesion molecule (CAM) interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to mechanical stimulus | cellular response to external stimulus | cellular response to vitamin E | positive regulation of cell differentiation | anatomical structure morphogenesis | response to mechanical stimulus | anatomical structure formation involved in morphogenesis | response to insulin | cell adhesion | positive regulation of developmental process | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of cell differentiation | ossification | system development | positive regulation of multicellular organismal process | response to peptide hormone | cell differentiation | cellular developmental process | multicellular organism development | blood vessel development | head development | nervous system process | vasculature development | regulation of developmental process | Cytoskeleton in muscle cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anatomical structure morphogenesis | system development | cell differentiation | cellular developmental process | multicellular organism development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell adhesion | Cell adhesion molecule (CAM) interaction | Cytoskeleton in muscle cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell differentiation | anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of glial cell differentiation | regulation of cell differentiation | regulation of developmental process | neuron projection development | positive regulation of gliogenesis | positive regulation of neurogenesis | regulation of glial cell differentiation | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | system development | neuron development | positive regulation of astrocyte differentiation | positive regulation of nervous system development | cell development | regulation of cell growth | regulation of gliogenesis | regulation of cell development | regulation of neurogenesis | neuron differentiation | cell differentiation | cellular developmental process | multicellular organism development | positive regulation of myelination | generation of neurons | plasma membrane bounded cell projection organization | negative regulation of cell growth | cell growth | cell projection organization | positive regulation of cell development | cell morphogenesis | regulation of nervous system development | regulation of astrocyte differentiation | neurogenesis | negative regulation of growth | regulation of growth | response to mechanical stimulus | regulation of multicellular organismal process | positive regulation of nervous system process | glial cell differentiation | positive regulation of cellular process | regulation of myelination | cell adhesion | anatomical structure development | regulation of multicellular organismal development | positive regulation of biological process | gliogenesis | nervous system development | astrocyte differentiation | developmental process | regulation of axon extension | cellular response to mechanical stimulus | cellular response to external stimulus | central nervous system development | positive regulation of multicellular organismal process | growth | regulation of extent of cell growth | axonogenesis | axon extension | cellular component organization | regulation of neuron projection development | axon development | negative regulation of multicellular organismal process | cellular component organization or biogenesis | regulation of nervous system process | regulation of axonogenesis | regulation of cellular process | myelination | cell morphogenesis involved in neuron differentiation | ensheathment of neurons | axon ensheathment | neuron projection extension | regulation of biological process | regulation of cell size | negative regulation of neuron apoptotic process | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | regulation of neuron differentiation | multicellular organismal process | biological regulation | response to external stimulus | developmental growth involved in morphogenesis | response to stress | developmental cell growth | regulation of anatomical structure morphogenesis | negative regulation of cell development | cell-cell adhesion | regulation of neuron apoptotic process | negative regulation of developmental process | neuron apoptotic process | regulation of developmental growth | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of cellular component size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell differentiation | anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of glial cell differentiation | regulation of cell differentiation | regulation of developmental process | neuron projection development | positive regulation of gliogenesis | positive regulation of neurogenesis | regulation of glial cell differentiation | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | system development | neuron development | positive regulation of nervous system development | cell development | regulation of gliogenesis | regulation of cell development | regulation of neurogenesis | neuron differentiation | cell differentiation | cellular developmental process | multicellular organism development | positive regulation of myelination | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | positive regulation of cell development | cell morphogenesis | regulation of nervous system development | neurogenesis | regulation of multicellular organismal process | positive regulation of nervous system process | glial cell differentiation | animal organ development | positive regulation of cellular process | regulation of myelination | head development | rhombomere formation | rhombomere structural organization | rhombomere 3 structural organization | rhombomere 3 formation | rhombomere 5 morphogenesis | rhombomere 5 structural organization | rhombomere 5 formation | anatomical structure development | regulation of multicellular organismal development | positive regulation of biological process | gliogenesis | nervous system development | developmental process | nerve development | central nervous system development | positive regulation of multicellular organismal process | axonogenesis | cellular component organization | axon development | cellular component organization or biogenesis | tissue development | regulation of nervous system process | regulation of cellular process | hindbrain development | myelination | cell morphogenesis involved in neuron differentiation | ensheathment of neurons | axon ensheathment | regulation of biological process | brain development | multicellular organismal process | biological regulation | response to endogenous stimulus | axon guidance | neuron projection guidance | fat cell differentiation | response to insulin | response to hormone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell differentiation | anatomical structure morphogenesis | positive regulation of developmental process | regulation of cell differentiation | regulation of developmental process | system development | cell migration | cell differentiation | cellular developmental process | multicellular organism development | regulation of cell migration | regulation of cell motility | regulation of locomotion | cell motility | mesenchymal cell differentiation | response to mechanical stimulus | locomotion | regulation of multicellular organismal process | animal organ development | positive regulation of cellular process | mesenchyme development | cell adhesion | head development | cellular response to vitamin E | anatomical structure development | positive regulation of biological process | developmental process | cellular response to mechanical stimulus | cellular response to external stimulus | cell surface receptor signaling pathway | Wnt signaling pathway | positive regulation of multicellular organismal process | response to hydrogen peroxide | animal organ morphogenesis | regulation of signal transduction | cellular component organization | cellular component organization or biogenesis | tissue development | regulation of cellular process | cellular response to glucose stimulus | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | cellular response to carbohydrate stimulus | regulation of biological process | intracellular glucose homeostasis | regulation of signaling | regulation of cell communication | response to reactive oxygen species | cartilage development | multicellular organismal process | biological regulation | response to glucose | response to endogenous stimulus | regulation of canonical Wnt signaling pathway | regulation of cell adhesion | response to hexose | response to monosaccharide | response to external stimulus | response to stress | response to carbohydrate | regulation of response to stimulus | canonical Wnt signaling pathway | sensory perception of mechanical stimulus | response to insulin | negative regulation of cell adhesion | regulation of Wnt signaling pathway | glucose homeostasis | carbohydrate homeostasis | connective tissue development | response to hormone | response to steroid hormone | cellular response to abiotic stimulus | cellular response to environmental stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anatomical structure morphogenesis | system development | cell development | cell differentiation | cellular developmental process | multicellular organism development | animal organ development | anatomical structure development | developmental process | animal organ morphogenesis | cellular component organization | cellular component organization or biogenesis | multicellular organismal process | sensory organ morphogenesis | embryonic organ morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell migration | regulation of cell migration | regulation of cell motility | regulation of locomotion | cell motility | locomotion | cell adhesion | regulation of cellular process | regulation of biological process | biological regulation</t>
+    <t xml:space="preserve">cell adhesion | response to chemical | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majorSC, aggSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haghl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to aldehyde | response to ketone | cellular response to ketone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | positive regulation of epithelial to mesenchymal transition | anatomical structure morphogenesis | cellular response to vitamin E | positive regulation of biological process | cellular response to growth factor stimulus | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | negative regulation of cell adhesion | collagen biosynthetic process | regulation of response to stimulus | response to growth factor | regulation of cell adhesion | response to steroid hormone | positive regulation of developmental process | positive regulation of response to stimulus | regulation of epithelial to mesenchymal transition | response to oxygen levels | cellular response to fibroblast growth factor stimulus | positive regulation of signal transduction | cellular response to chemical stimulus | response to fibroblast growth factor | positive regulation of cell differentiation | regulation of cell differentiation | enzyme-linked receptor protein signaling pathway | regulation of developmental process | collagen metabolic process | positive regulation of multicellular organismal process | epithelial to mesenchymal transition | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | system development | cellular response to endogenous stimulus | regulation of multicellular organismal process | blood vessel development | vasculature development | positive regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | mesenchymal cell differentiation | sensory perception of sound | positive regulation of macromolecule metabolic process | cellular response to transforming growth factor beta stimulus | circulatory system development | response to transforming growth factor beta | sensory perception of mechanical stimulus | mesenchyme development | positive regulation of metabolic process | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | response to stress | positive regulation of RNA metabolic process | positive regulation of nucleobase-containing compound metabolic process | positive regulation of cell migration | positive regulation of cell motility | tissue development | positive regulation of locomotion | cell differentiation | cellular developmental process | cell surface receptor protein tyrosine kinase signaling pathway | multicellular organism development | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | regulation of biosynthetic process | cell surface receptor signaling pathway | regulation of macromolecule metabolic process | response to stimulus | response to hormone | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | anatomical structure development | regulation of metabolic process | response to lipid | animal organ morphogenesis | collagen fibril organization | endochondral bone morphogenesis | bone morphogenesis | regulation of biological process | animal organ development | biological regulation | Protein digestion and absorption | Cytoskeleton in muscle cells | AGE-RAGE signaling pathway in diabetic complications | Amoebiasis | Platelet activation | Relaxin signaling pathway | Diabetic cardiomyopathy | cellular response to amino acid stimulus | cellular response to acid chemical | response to amino acid | cartilage development | bone development | response to acid chemical | skeletal system morphogenesis | connective tissue development | embryo development | skin development | cell-substrate adhesion | response to peptide hormone | skeletal system development | homeostatic process | response to oxygen-containing compound | head development | regulation of cellular process | chordate embryonic development | embryo development ending in birth or egg hatching | PI3K-Akt signaling pathway | developmental process | cellular component organization | cellular component organization or biogenesis | response to mechanical stimulus | multicellular organismal process | cellular response to mechanical stimulus | cellular response to external stimulus | system process | nervous system process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | anatomical structure morphogenesis | positive regulation of biological process | cellular response to growth factor stimulus | regulation of response to stimulus | response to growth factor | positive regulation of developmental process | regulation of anatomical structure morphogenesis | positive regulation of response to stimulus | cellular response to fibroblast growth factor stimulus | positive regulation of signal transduction | cellular response to chemical stimulus | response to fibroblast growth factor | enzyme-linked receptor protein signaling pathway | positive regulation of cell population proliferation | regulation of developmental process | intracellular signaling cassette | positive regulation of multicellular organismal process | positive regulation of catalytic activity | neurogenesis | positive regulation of cell communication | positive regulation of signaling | regulation of endothelial cell migration | regulation of signal transduction | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | system development | cellular response to endogenous stimulus | regulation of multicellular organismal process | blood vessel development | vasculature development | positive regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | endothelial cell migration | positive regulation of macromolecule metabolic process | circulatory system development | muscle cell proliferation | regulation of angiogenesis | regulation of vasculature development | positive regulation of metabolic process | regulation of multicellular organismal development | regulation of epithelial cell proliferation | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | response to stress | positive regulation of RNA metabolic process | epithelial cell proliferation | positive regulation of nucleobase-containing compound metabolic process | angiogenesis | positive regulation of cell migration | positive regulation of cell motility | tissue development | positive regulation of locomotion | cell differentiation | cellular developmental process | cell surface receptor protein tyrosine kinase signaling pathway | multicellular organism development | blood vessel morphogenesis | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | MAPK cascade | regulation of biosynthetic process | cell surface receptor signaling pathway | regulation of macromolecule metabolic process | response to stimulus | tube morphogenesis | intracellular signal transduction | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | anatomical structure development | regulation of metabolic process | animal organ morphogenesis | muscle tissue development | growth | nervous system development | developmental growth | wound healing | cardiac muscle tissue growth | regulation of biological process | heart growth | animal organ development | striated muscle tissue development | biological regulation | lung development | respiratory tube development | respiratory system development | response to wounding | heart development | tissue morphogenesis | regulation of cellular process | PI3K-Akt signaling pathway | developmental process | developmental growth involved in morphogenesis | multicellular organismal process | regionalization | pattern specification process | gland development | liver development | hepaticobiliary system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | positive regulation of epithelial to mesenchymal transition | anatomical structure morphogenesis | negative regulation of exit from mitosis | positive regulation of biological process | cellular response to growth factor stimulus | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | negative regulation of cell adhesion | collagen biosynthetic process | regulation of response to stimulus | response to growth factor | regulation of cell adhesion | positive regulation of developmental process | regulation of anatomical structure morphogenesis | positive regulation of response to stimulus | regulation of epithelial to mesenchymal transition | response to oxygen levels | cell-cell adhesion | cellular response to chemical stimulus | positive regulation of cell differentiation | regulation of cell differentiation | enzyme-linked receptor protein signaling pathway | positive regulation of cell population proliferation | regulation of developmental process | collagen metabolic process | regulation of cell-cell adhesion | intracellular signaling cassette | positive regulation of multicellular organismal process | cellular response to hypoxia | epithelial to mesenchymal transition | regulation of endothelial cell migration | anatomical structure formation involved in morphogenesis | cellular response to decreased oxygen levels | response to abiotic stimulus | system development | cellular response to endogenous stimulus | cellular response to oxygen levels | regulation of multicellular organismal process | blood vessel development | vasculature development | positive regulation of macromolecule biosynthetic process | negative regulation of cell-cell adhesion | positive regulation of biosynthetic process | endothelial cell migration | mesenchymal cell differentiation | positive regulation of macromolecule metabolic process | cellular response to transforming growth factor beta stimulus | circulatory system development | muscle cell proliferation | response to transforming growth factor beta | regulation of angiogenesis | regulation of vasculature development | mesenchyme development | positive regulation of metabolic process | regulation of multicellular organismal development | regulation of epithelial cell proliferation | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | response to stress | positive regulation of RNA metabolic process | epithelial cell proliferation | positive regulation of nucleobase-containing compound metabolic process | positive regulation of cytokine production | angiogenesis | tissue development | cell differentiation | cellular developmental process | multicellular organism development | blood vessel morphogenesis | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | regulation of biosynthetic process | regulation of cytokine production | cytokine production | cell surface receptor signaling pathway | regulation of macromolecule metabolic process | response to stimulus | tube morphogenesis | intracellular signal transduction | negative regulation of developmental process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | anatomical structure development | regulation of metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | collagen fibril organization | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | muscle tissue development | regulation of cell migration | regulation of cell motility | growth | system development | regulation of locomotion | nervous system development | tissue homeostasis | anatomical structure homeostasis | endochondral bone morphogenesis | response to abiotic stimulus | locomotion | neurogenesis | positive regulation of cell communication | positive regulation of signaling | anatomical structure morphogenesis | cell differentiation | cellular developmental process | multicellular organism development | developmental growth | tissue development | gliogenesis | wound healing | bone morphogenesis | cell migration | response to endogenous stimulus | regulation of biological process | animal organ development | positive regulation of signal transduction | response to hormone | generation of neurons | biological regulation | Protein digestion and absorption | Cytoskeleton in muscle cells | AGE-RAGE signaling pathway in diabetic complications | Amoebiasis | Platelet activation | Relaxin signaling pathway | Diabetic cardiomyopathy | cell motility | cellular response to growth factor stimulus | response to growth factor | blood vessel development | response to stress | vasculature development | cellular response to amino acid stimulus | cellular response to acid chemical | response to amino acid | cartilage development | enzyme-linked receptor protein signaling pathway | bone development | response to acid chemical | lung development | respiratory tube development | skeletal system morphogenesis | animal organ morphogenesis | cellular response to transforming growth factor beta stimulus | respiratory system development | response to transforming growth factor beta | circulatory system development | anatomical structure formation involved in morphogenesis | connective tissue development | embryo development | cellular response to endogenous stimulus | skin development | cell-substrate adhesion | positive regulation of cellular process | response to stimulus | response to peptide hormone | positive regulation of biological process | skeletal system development | intracellular signaling cassette | response to wounding | homeostatic process | response to oxygen-containing compound | regulation of response to stimulus | blood vessel morphogenesis | heart development | tissue morphogenesis | head development | regulation of cellular process | positive regulation of response to stimulus | chordate embryonic development | cellular response to chemical stimulus | cytokine production | embryo development ending in birth or egg hatching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of cell differentiation | system development | regulation of developmental process | positive regulation of myelination | glial cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal development | gliogenesis | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | regulation of cell differentiation | developmental process | regulation of multicellular organismal process | cell growth | positive regulation of gliogenesis | neurogenesis | nervous system development | regulation of nervous system development | regulation of glial cell differentiation | astrocyte differentiation | cell adhesion | cellular component organization | positive regulation of astrocyte differentiation | positive regulation of neurogenesis | cellular component organization or biogenesis | growth | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | regulation of gliogenesis | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | anatomical structure formation involved in morphogenesis | regulation of nervous system process | regulation of cell growth | cell development | positive regulation of multicellular organismal process | neuron development | negative regulation of cell growth | regulation of neurogenesis | regulation of astrocyte differentiation | myelination | ensheathment of neurons | axon ensheathment | regulation of cell development | positive regulation of cell development | negative regulation of growth | regulation of neuron differentiation | central nervous system development | response to mechanical stimulus | cell morphogenesis | developmental growth involved in morphogenesis | developmental cell growth | regulation of growth | positive regulation of cellular process | multicellular organismal process | response to abiotic stimulus | positive regulation of biological process | cellular response to mechanical stimulus | cellular response to external stimulus | developmental growth | transmission of nerve impulse | regulation of anatomical structure morphogenesis | axonogenesis | regulation of biological process | regulation of axonogenesis | system process | regulation of neuron projection development | axon development | response to wounding | biological regulation | regulation of cellular component organization | nervous system process | neuron projection extension | negative regulation of neuron differentiation | negative regulation of cell projection organization | negative regulation of cell differentiation | cell-cell adhesion via plasma-membrane adhesion molecules | Cell adhesion molecule (CAM) interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of cell differentiation | system development | regulation of developmental process | positive regulation of myelination | glial cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal development | gliogenesis | positive regulation of nervous system process | positive regulation of glial cell differentiation | regulation of myelination | regulation of cell differentiation | developmental process | regulation of multicellular organismal process | animal organ development | cranial nerve structural organization | positive regulation of gliogenesis | neurogenesis | nervous system development | regulation of nervous system development | regulation of glial cell differentiation | nerve development | cellular component organization | positive regulation of neurogenesis | cellular component organization or biogenesis | neuron differentiation | anatomical structure arrangement | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | regulation of gliogenesis | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | anatomical structure formation involved in morphogenesis | regulation of nervous system process | cranial nerve morphogenesis | cell development | positive regulation of multicellular organismal process | neuron development | regulation of neurogenesis | striated muscle tissue development | myelination | ensheathment of neurons | axon ensheathment | muscle tissue development | regulation of cell development | positive regulation of cell development | tissue development | rhombomere formation | rhombomere structural organization | rhombomere 3 structural organization | rhombomere 3 formation | rhombomere 5 morphogenesis | rhombomere 5 structural organization | rhombomere 5 formation | central nervous system development | cranial nerve development | cell morphogenesis | positive regulation of cellular process | rhythmic behavior | multicellular organismal process | muscle structure development | positive regulation of biological process | skeletal muscle cell differentiation | head development | behavior | regionalization | pattern specification process | response to endogenous stimulus | axonogenesis | regulation of biological process | system process | axon development | biological regulation | hindbrain development | nervous system process | skeletal muscle tissue development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | response to endogenous stimulus | positive regulation of cellular process | anatomical structure morphogenesis | positive regulation of biological process | regulation of response to stimulus | response to steroid hormone | positive regulation of developmental process | regulation of anatomical structure morphogenesis | positive regulation of response to stimulus | response to oxygen levels | positive regulation of signal transduction | cellular response to chemical stimulus | positive regulation of cell differentiation | positive regulation of neuron differentiation | regulation of cell differentiation | positive regulation of cell population proliferation | regulation of developmental process | intracellular signaling cassette | positive regulation of multicellular organismal process | cellular response to hypoxia | neurogenesis | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction | cellular response to decreased oxygen levels | response to abiotic stimulus | system development | myelination | ensheathment of neurons | axon ensheathment | cellular response to oxygen levels | regulation of multicellular organismal process | muscle tissue development | growth | nervous system development | cell differentiation | cellular developmental process | multicellular organism development | developmental growth | astrocyte differentiation | tissue development | gliogenesis | regulation of multicellular organismal development | regulation of biological process | animal organ development | striated muscle tissue development | response to hormone | generation of neurons | cell growth | biological regulation | positive regulation of myelination | glial cell differentiation | anatomical structure development | positive regulation of nervous system process | regulation of myelination | developmental process | regulation of nervous system development | cellular component organization | cellular component organization or biogenesis | neuron differentiation | plasma membrane bounded cell projection organization | neuron projection development | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | regulation of nervous system process | cell development | neuron development | regulation of neuron differentiation | central nervous system development | cell morphogenesis | developmental growth involved in morphogenesis | developmental cell growth | multicellular organismal process | muscle structure development | skeletal muscle cell differentiation | behavior | system process | nervous system process | neuron projection extension | skeletal muscle tissue development | negative regulation of cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of sodium ion transport | growth | system development | sodium ion transport | seminal vesicle epithelium development | nervous system development | sensory perception of mechanical stimulus | negative regulation of cell adhesion | response to abiotic stimulus | neurogenesis | positive regulation of cell communication | positive regulation of signaling | anatomical structure morphogenesis | cell differentiation | cellular developmental process | regulation of cell adhesion | multicellular organism development | astrocyte differentiation | tissue development | regulation of smoothened signaling pathway | regulation of metal ion transport | gliogenesis | wound healing | regulation of multicellular organismal development | regulation of multicellular organismal process | cell-cell adhesion | regulation of biological process | animal organ development | regulation of monoatomic ion transport | generation of neurons | regulation of cell-cell adhesion | cell growth | biological regulation | positive regulation of developmental process | positive regulation of cell differentiation | regulation of developmental process | glial cell differentiation | anatomical structure development | positive regulation of glial cell differentiation | regulation of cell differentiation | developmental process | positive regulation of gliogenesis | regulation of nervous system development | regulation of glial cell differentiation | nerve development | cellular component organization | positive regulation of astrocyte differentiation | positive regulation of neurogenesis | cellular component organization or biogenesis | neuron differentiation | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | regulation of gliogenesis | cell projection organization | regulation of cell growth | cell development | positive regulation of multicellular organismal process | neuron development | negative regulation of cell growth | regulation of neurogenesis | regulation of astrocyte differentiation | regulation of cell development | positive regulation of cell development | negative regulation of growth | central nervous system development | response to mechanical stimulus | regulation of growth | positive regulation of cellular process | multicellular organismal process | positive regulation of biological process | head development | behavior | metal ion transport | monoatomic cation transport | gland development | system process | regulation of neuron projection development | response to wounding | regulation of transport | regulation of cellular component organization | hindbrain development | nervous system process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | response to endogenous stimulus | positive regulation of cellular process | anatomical structure morphogenesis | positive regulation of biological process | negative regulation of cell adhesion | regulation of cell adhesion | response to steroid hormone | regulation of anatomical structure morphogenesis | cell-cell adhesion | regulation of cell differentiation | regulation of developmental process | regulation of cell-cell adhesion | intracellular signaling cassette | positive regulation of multicellular organismal process | neurogenesis | system development | myelination | ensheathment of neurons | axon ensheathment | regulation of multicellular organismal process | positive regulation of macromolecule biosynthetic process | negative regulation of cell-cell adhesion | positive regulation of biosynthetic process | sensory perception of sound | positive regulation of macromolecule metabolic process | sensory perception of mechanical stimulus | positive regulation of metabolic process | regulation of multicellular organismal development | positive regulation of cytokine production | cell differentiation | cellular developmental process | multicellular organism development | regulation of gene expression | regulation of macromolecule biosynthetic process | response to chemical | MAPK cascade | regulation of biosynthetic process | regulation of cytokine production | cytokine production | regulation of macromolecule metabolic process | response to stimulus | intracellular signal transduction | response to hormone | negative regulation of developmental process | anatomical structure development | regulation of metabolic process | response to lipid | nervous system development | tissue homeostasis | anatomical structure homeostasis | regulation of biological process | generation of neurons | biological regulation | embryo development | homeostatic process | response to oxygen-containing compound | regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | response to endogenous stimulus | positive regulation of cellular process | cell motility | anatomical structure morphogenesis | positive regulation of biological process | cellular response to growth factor stimulus | regulation of response to stimulus | response to growth factor | positive regulation of developmental process | cellular response to chemical stimulus | positive regulation of cell differentiation | positive regulation of neuron differentiation | regulation of cell differentiation | enzyme-linked receptor protein signaling pathway | regulation of developmental process | neurogenesis | regulation of signal transduction | system development | cellular response to endogenous stimulus | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | developmental process | nervous system development | cellular component organization | cellular component organization or biogenesis | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | cell development | neuron development | regulation of neuron differentiation | cell morphogenesis | multicellular organismal process | regionalization | pattern specification process | regulation of biological process | biological regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of cell differentiation | system development | regulation of developmental process | glial cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal development | gliogenesis | regulation of cell differentiation | developmental process | regulation of multicellular organismal process | neurogenesis | nervous system development | regulation of nervous system development | cellular component organization | positive regulation of neurogenesis | cellular component organization or biogenesis | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | positive regulation of nervous system development | neuron projection morphogenesis | cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | cell development | positive regulation of multicellular organismal process | neuron development | regulation of neurogenesis | regulation of cell development | positive regulation of cell development | cell morphogenesis | positive regulation of cellular process | multicellular organismal process | positive regulation of biological process | regulation of anatomical structure morphogenesis | axonogenesis | regulation of biological process | regulation of axonogenesis | regulation of neuron projection development | axon development | biological regulation | regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | collagen fibril organization | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | muscle tissue development | growth | system development | tissue homeostasis | anatomical structure homeostasis | cell differentiation | cellular developmental process | multicellular organism development | developmental growth | tissue development | regulation of multicellular organismal development | regulation of multicellular organismal process | cardiac muscle tissue growth | cardiac muscle hypertrophy | striated muscle hypertrophy | muscle hypertrophy | regulation of biological process | heart growth | animal organ development | striated muscle tissue development | cell growth | biological regulation | Protein digestion and absorption | regulation of developmental process | anatomical structure development | developmental process | cellular component organization | cellular component organization or biogenesis | regulation of cell growth | cell development | developmental cell growth | regulation of growth | multicellular organismal process | muscle structure development | system process | regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | positive regulation of cell differentiation | system development | regulation of developmental process | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal development | regulation of cell differentiation | developmental process | regulation of multicellular organismal process | cell growth | animal organ development | cellular component organization | cellular component organization or biogenesis | growth | regulation of cell growth | cell development | negative regulation of cell growth | regulation of cell development | tissue development | negative regulation of growth | negative regulation of hepatocyte differentiation | regulation of growth | animal organ morphogenesis | positive regulation of cellular process | multicellular organismal process | sensory organ morphogenesis | positive regulation of biological process | regulation of biological process | gland development | liver development | hepaticobiliary system development | biological regulation | regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | developmental process | regulation of multicellular organismal process | animal organ development | cranial nerve structural organization | nervous system development | nerve development | cellular component organization | cellular component organization or biogenesis | anatomical structure arrangement | cranial nerve morphogenesis | central nervous system development | cranial nerve development | rhythmic behavior | multicellular organismal process | export across plasma membrane | head development | behavior | transmission of nerve impulse | metal ion transport | regulation of biological process | monoatomic cation transport | system process | regulation of transport | biological regulation | nervous system process | action potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | anatomical structure morphogenesis | cell-cell adhesion | neurogenesis | anatomical structure formation involved in morphogenesis | system development | nervous system development | cell differentiation | cellular developmental process | multicellular organism development | animal organ development | generation of neurons | anatomical structure development | developmental process | cellular component organization | cellular component organization or biogenesis | neuron differentiation | animal organ morphogenesis | multicellular organismal process | sensory organ morphogenesis | eye morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | regulation of developmental process | cell differentiation | cellular developmental process | anatomical structure development | developmental process | cellular component organization | cellular component organization or biogenesis | plasma membrane bounded cell projection organization | cell projection organization | anatomical structure formation involved in morphogenesis | positive regulation of cellular process | muscle structure development | positive regulation of biological process | regulation of biological process | regulation of transport | biological regulation | regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of neuron differentiation | cell adhesion | negative regulation of microvillus assembly | regulation of thyroid gland epithelial cell proliferation | negative regulation of thyroid gland epithelial cell proliferation | thyroid gland epithelial cell proliferation | negative regulation of neuron differentiation | multicellular organism development | negative regulation of cell projection organization | nervous system development | negative regulation of cell differentiation | neuron differentiation | cellular component organization | generation of neurons | regulation of cell differentiation | plasma membrane bounded cell projection organization | system development | cell projection organization | cellular component organization or biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | positive regulation of cellular process | cell motility | positive regulation of biological process | regulation of cell adhesion | cell-cell adhesion | regulation of cell-cell adhesion | response to stress | response to stimulus | regulation of biological process | biological regulation | regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | developmental process | animal organ development | cellular component organization | cellular component organization or biogenesis | cell development | animal organ morphogenesis | multicellular organismal process | sensory organ morphogenesis | eye morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular process | positive regulation of biological process | regulation of response to stimulus | positive regulation of response to stimulus | positive regulation of signal transduction | cellular response to chemical stimulus | positive regulation of cell population proliferation | intracellular signaling cassette | positive regulation of catalytic activity | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular process | positive regulation of biological process | regulation of sodium ion transport | sodium ion transport | regulation of metal ion transport | regulation of biological process | regulation of monoatomic ion transport | biological regulation | export across plasma membrane | metal ion transport | monoatomic cation transport | regulation of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular process | positive regulation of biological process | regulation of response to stimulus | positive regulation of response to stimulus | positive regulation of signal transduction | positive regulation of cell communication | positive regulation of signaling | regulation of signal transduction | regulation of smoothened signaling pathway | regulation of biological process | biological regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | regulation of cell motility | regulation of locomotion | locomotion | cell migration | cell motility | regulation of biological process | biological regulation | Cytoskeleton in muscle cells | Cell adhesion molecule (CAM) interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmission of nerve impulse | cell adhesion | multicellular organism development | action potential | cell migration | cellular component organization | system development | cellular component organization or biogenesis | cell-cell adhesion via plasma-membrane adhesion molecules | Cell adhesion molecule (CAM) interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of multicellular organismal process | cardiac muscle hypertrophy | striated muscle hypertrophy | muscle hypertrophy | regulation of biological process | biological regulation | response to stress | response to stimulus | regulation of response to stimulus | regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of sodium ion transport | sodium ion transport | regulation of metal ion transport | regulation of biological process | regulation of monoatomic ion transport | biological regulation | metal ion transport | monoatomic cation transport | regulation of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development | nervous system development | cell differentiation | cellular developmental process | multicellular organism development | regulation of biological process | biological regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | cellular component organization | cellular component organization or biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicellular organism development | cellular component organization | anatomical structure morphogenesis | cellular component organization or biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell migration | cellular component organization | cellular component organization or biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of neuron projection development | negative regulation of cell projection organization | negative regulation of axonogenesis | axon regeneration | neuron projection regeneration | anatomical structure development | negative regulation of developmental process | response to axon injury | neuron projection development | transmission of nerve impulse | developmental process | regulation of neuron projection development | axon development | regulation of biological process | response to wounding | neuron development | cell communication | negative regulation of neurogenesis | biological regulation | regulation of axonogenesis | negative regulation of nervous system development | nervous system development | myelination | neuron projection morphogenesis | ensheathment of neurons | axon ensheathment | regulation of plasma membrane bounded cell projection organization | plasma membrane bounded cell projection morphogenesis | system development | cell projection morphogenesis | negative regulation of cellular component organization | neuron differentiation | regulation of cell projection organization | negative regulation of neuron apoptotic process | anatomical structure morphogenesis | regeneration | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | response to mechanical stimulus | cell-cell adhesion via plasma-membrane adhesion molecules | regulation of anatomical structure morphogenesis | cell differentiation | cellular developmental process | neurogenesis | negative regulation of cell development | multicellular organism development | regulation of neuron apoptotic process | cell morphogenesis | IgSF CAM signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of neuron projection development | negative regulation of cell projection organization | response to progesterone | response to ketone | negative regulation of axonogenesis | response to steroid hormone | anatomical structure development | negative regulation of developmental process | neuron projection development | developmental process | regulation of neuron projection development | axon development | regulation of biological process | neuron development | cell communication | negative regulation of neurogenesis | biological regulation | regulation of axonogenesis | negative regulation of nervous system development | nervous system development | myelination | neuron projection morphogenesis | ensheathment of neurons | axon ensheathment | regulation of plasma membrane bounded cell projection organization | plasma membrane bounded cell projection morphogenesis | system development | cell projection morphogenesis | negative regulation of cellular component organization | neuron differentiation | regulation of cell projection organization | anatomical structure morphogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | cell-cell adhesion via plasma-membrane adhesion molecules | regulation of anatomical structure morphogenesis | cell differentiation | cellular developmental process | neurogenesis | negative regulation of cell development | multicellular organism development | response to hormone | cell morphogenesis | response to lipid | IgSF CAM signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to ketone | response to steroid hormone | anatomical structure development | negative regulation of developmental process | neuron projection development | response to hydrogen peroxide | developmental process | regulation of biological process | neuron development | cell communication | biological regulation | nervous system development | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | system development | cell projection morphogenesis | neuron differentiation | response to reactive oxygen species | negative regulation of neuron apoptotic process | anatomical structure morphogenesis | generation of neurons | plasma membrane bounded cell projection organization | transport | cell projection organization | response to glucose | response to hexose | response to monosaccharide | establishment of localization | regulation of anatomical structure morphogenesis | response to carbohydrate | cell differentiation | cellular developmental process | neurogenesis | animal organ development | multicellular organism development | response to hormone | regulation of neuron apoptotic process | cell morphogenesis | response to lipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of neuron projection development | negative regulation of cell projection organization | axon regeneration | neuron projection regeneration | anatomical structure development | negative regulation of developmental process | response to axon injury | neuron projection development | developmental process | regulation of neuron projection development | axon development | regulation of biological process | response to wounding | neuron development | cell communication | biological regulation | nervous system development | regulation of plasma membrane bounded cell projection organization | system development | negative regulation of cellular component organization | neuron differentiation | regulation of cell projection organization | regeneration | generation of neurons | plasma membrane bounded cell projection organization | transport | cell projection organization | establishment of localization | cell differentiation | cellular developmental process | neurogenesis | multicellular organism development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to progesterone | response to ketone | response to steroid hormone | anatomical structure development | response to hydrogen peroxide | developmental process | regulation of biological process | cell communication | biological regulation | keratinocyte differentiation | response to reactive oxygen species | transport | response to glucose | response to hexose | response to mechanical stimulus | response to monosaccharide | establishment of localization | epidermal cell differentiation | response to carbohydrate | cell differentiation | cellular developmental process | animal organ development | response to hormone | skin development | response to lipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of presynaptic membrane potential | anatomical structure development | transmission of nerve impulse | developmental process | regulation of biological process | cell communication | biological regulation | regulation of postsynaptic membrane potential | nervous system development | system development | anatomical structure morphogenesis | transport | establishment of localization | animal organ development | multicellular organism development | IgSF CAM signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure development | developmental process | regulation of biological process | response to wounding | biological regulation | keratinocyte differentiation | epidermal cell differentiation | cell differentiation | cellular developmental process | animal organ development | skin development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure development | developmental process | regulation of biological process | cell communication | biological regulation | system development | anatomical structure morphogenesis | animal organ development | multicellular organism development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of presynaptic membrane potential | regulation of biological process | cell communication | biological regulation | regulation of postsynaptic membrane potential | transport | establishment of localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of biological process | biological regulation | transport | establishment of localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | negative regulation of microvillus assembly | regulation of thyroid gland epithelial cell proliferation | negative regulation of thyroid gland epithelial cell proliferation | thyroid gland epithelial cell proliferation | neuron differentiation | generation of neurons | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | neurogenesis | cell-cell adhesion | negative regulation of cell projection organization | nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | neuron differentiation | generation of neurons | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | neurogenesis | regulation of axonogenesis | cell-cell adhesion | negative regulation of cell projection organization | cell-cell adhesion via plasma-membrane adhesion molecules | nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | neuron differentiation | generation of neurons | neurogenesis | cell-cell adhesion | cell-cell adhesion via plasma-membrane adhesion molecules | nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron differentiation | generation of neurons | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | neurogenesis | regulation of axonogenesis | nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to steroid hormone | protein localization to nucleus | response to hydrogen peroxide | protein localization to organelle | response to hormone | response to reactive oxygen species | response to glucose | response to hexose | response to monosaccharide | response to carbohydrate | cellular response to vitamin E | collagen fibril organization | endochondral bone morphogenesis | cell adhesion | skin development | cell communication | cell migration | response to endogenous stimulus | response to oxidative stress | regulation of cell migration | bone morphogenesis | regulation of cellular process | response to estradiol | regulation of cell motility | cell motility | response to lipid | regulation of locomotion | localization | response to chemical | homeostatic process | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | nitrogen compound transport | visual perception | sensory perception of light stimulus | biological regulation | locomotion | transport | tissue development | cellular response to amino acid stimulus | cellular response to glucose stimulus | signaling | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | animal organ development | cellular response to acid chemical | cellular response to carbohydrate stimulus | intracellular glucose homeostasis | establishment of localization | positive regulation of cellular process | protein transport | response to amino acid | cartilage development | bone development | response to acid chemical | intracellular protein localization | mesenchymal cell differentiation | response to mechanical stimulus | skeletal system morphogenesis | head development | positive regulation of biological process | sensory perception of sound | AGE-RAGE signaling pathway in diabetic complications | Protein digestion and absorption | Amoebiasis | Platelet activation | Relaxin signaling pathway | Diabetic cardiomyopathy | Cytoskeleton in muscle cells | cellular response to transforming growth factor beta stimulus | response to transforming growth factor beta | embryo development | sensory perception of mechanical stimulus | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | negative regulation of cell adhesion | connective tissue development | cell-substrate adhesion | response to peptide hormone | cellular response to stimulus | skeletal system development | cellular response to growth factor stimulus | response to growth factor | blood vessel development | regulation of cell adhesion | vasculature development | chordate embryonic development | embryo development ending in birth or egg hatching | negative regulation of biological process | anatomical structure morphogenesis | cellular response to aldehyde | system development | multicellular organism development | regulation of multicellular organismal process | animal organ morphogenesis | negative regulation of cell-substrate adhesion | mesenchyme development | regulation of developmental process | cell differentiation | cellular developmental process | Wnt signaling pathway | cellular component organization | positive regulation of cell differentiation | anatomical structure development | regulation of cell-substrate adhesion | cellular response to nutrient levels | system process | response to nutrient levels | positive regulation of cell migration | positive regulation of cell motility | positive regulation of locomotion | developmental process | positive regulation of developmental process | cellular component organization or biogenesis | response to abiotic stimulus | cellular response to mechanical stimulus | cellular response to external stimulus | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of cell differentiation | anatomical structure formation involved in morphogenesis | multicellular organismal process | cellular response to chemical stimulus | response to hyperoxia | positive regulation of multicellular organismal process | response to oxygen levels | cellular response to endogenous stimulus | response to increased oxygen levels | collagen metabolic process | response to stress | circulatory system development | positive regulation of epithelial to mesenchymal transition | regulation of response to stimulus | collagen biosynthetic process | cellular process | regulation of canonical Wnt signaling pathway | cell surface receptor signaling pathway | regulation of epithelial to mesenchymal transition | cellular response to fibroblast growth factor stimulus | response to fibroblast growth factor | epithelial to mesenchymal transition | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | positive regulation of RNA metabolic process | positive regulation of macromolecule metabolic process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | regulation of primary metabolic process | DNA-templated transcription | positive regulation of nucleobase-containing compound metabolic process | response to insulin | enzyme-linked receptor protein signaling pathway | regulation of RNA metabolic process | positive regulation of metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | animal organ development | cellular component organization | neuron differentiation | regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | extracellular matrix organization | cell adhesion | external encapsulating structure organization | extracellular structure organization | regulation of multicellular organismal development | response to steroid hormone | regulation of cell migration | response to abiotic stimulus | cell migration | cellular response to mechanical stimulus | response to endogenous stimulus | cellular response to external stimulus | regulation of cell motility | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of multicellular organismal process | regulation of cell differentiation | regulation of locomotion | response to mechanical stimulus | tissue development | cell motility | anatomical structure formation involved in morphogenesis | locomotion | response to hormone | multicellular organismal process | cellular response to chemical stimulus | regulation of cellular component organization | response to hyperoxia | positive regulation of multicellular organismal process | metal ion transport | response to oxygen levels | potassium ion transport | regulation of neuron differentiation | cellular response to endogenous stimulus | striated muscle tissue development | response to increased oxygen levels | regulation of plasma membrane bounded cell projection organization | monoatomic cation transport | muscle tissue development | regulation of cell projection organization | response to lipid | positive regulation of cellular process | regulation of cell adhesion | gland development | animal organ morphogenesis | response to stress | cellular response to stress | response to hypoxia | cellular response to chemical stress | positive regulation of cell migration | response to decreased oxygen levels | monoatomic ion transport | negative regulation of endothelial cell proliferation | positive regulation of cell motility | circulatory system development | biological regulation | positive regulation of cellular component organization | positive regulation of biological process | positive regulation of locomotion | cell-cell adhesion | regulation of system process | regulation of metal ion transport | transport | regulation of actin filament-based process | potassium ion transmembrane transport | negative regulation of epithelial cell differentiation | cellular response to oxygen levels | skeletal muscle tissue development | regulation of biological process | import across plasma membrane | negative regulation of BMP signaling pathway | skeletal muscle organ development | regulation of response to stimulus | negative regulation of developmental process | cellular response to growth factor stimulus | establishment of localization | Wnt signaling pathway | regulation of blood coagulation | muscle structure development | regulation of monoatomic ion transport | regulation of hemostasis | response to growth factor | maintenance of protein location | regulation of coagulation | blood vessel development | inorganic cation transmembrane transport | positive regulation of protein modification process | regulation of cellular process | cellular process | supramolecular fiber organization | regulation of canonical Wnt signaling pathway | regulation of vascular associated smooth muscle cell proliferation | localization | response to chemical | cell surface receptor signaling pathway | regulation of cell-cell adhesion | actin filament-based process | monoatomic cation transmembrane transport | vascular associated smooth muscle cell proliferation | vasculature development | response to peptide hormone | regulation of biological quality | system process | regulation of cytoskeleton organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | positive regulation of cell differentiation | animal organ development | cellular component organization | regulation of developmental process | cellular component organization or biogenesis | extracellular matrix organization | cell adhesion | external encapsulating structure organization | extracellular structure organization | regulation of multicellular organismal development | regulation of cell migration | response to abiotic stimulus | cell migration | response to endogenous stimulus | regulation of cell motility | regulation of multicellular organismal process | regulation of cell differentiation | regulation of locomotion | tissue development | cell motility | anatomical structure formation involved in morphogenesis | locomotion | multicellular organismal process | cellular response to chemical stimulus | regulation of cellular component organization | positive regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | response to oxygen levels | mesenchymal cell differentiation | cellular response to endogenous stimulus | collagen metabolic process | positive regulation of cellular process | regulation of cell adhesion | negative regulation of cell adhesion | mesenchyme development | response to stress | cellular response to stress | response to hypoxia | negative regulation of exit from mitosis | response to decreased oxygen levels | negative regulation of endothelial cell proliferation | circulatory system development | actin filament bundle assembly | biological regulation | positive regulation of cellular component organization | positive regulation of biological process | actin filament bundle organization | cell-cell adhesion | transport | regulation of actin filament-based process | positive regulation of epithelial to mesenchymal transition | cellular response to oxygen levels | regulation of biological process | regulation of response to stimulus | negative regulation of developmental process | cellular response to growth factor stimulus | export from cell | establishment of localization | collagen biosynthetic process | response to growth factor | blood vessel development | regulation of cellular process | cellular process | supramolecular fiber organization | regulation of vascular associated smooth muscle cell proliferation | localization | response to chemical | cell surface receptor signaling pathway | regulation of cell-cell adhesion | actin filament-based process | vascular associated smooth muscle cell proliferation | vasculature development | regulation of cytoskeleton organization | regulation of epithelial to mesenchymal transition | regulation of G1/S transition of mitotic cell cycle | epithelial to mesenchymal transition | regulation of endothelial cell migration | negative regulation of mitotic cell cycle phase transition | regulation of cell cycle G1/S phase transition | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | G1/S transition of mitotic cell cycle | negative regulation of mitotic cell cycle | endothelial cell migration | cell cycle G1/S phase transition | positive regulation of RNA metabolic process | negative regulation of cell cycle phase transition | positive regulation of macromolecule metabolic process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | cellular response to transforming growth factor beta stimulus | muscle cell proliferation | response to transforming growth factor beta | regulation of primary metabolic process | DNA-templated transcription | negative regulation of cell cycle process | positive regulation of nucleobase-containing compound metabolic process | regulation of angiogenesis | regulation of vasculature development | enzyme-linked receptor protein signaling pathway | regulation of RNA metabolic process | regulation of mitotic cell cycle phase transition | positive regulation of metabolic process | regulation of cellular component biogenesis | regulation of actin cytoskeleton organization | negative regulation of cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | positive regulation of cell differentiation | animal organ development | cellular component organization | neuron differentiation | regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | positive regulation of myelination | neuron projection morphogenesis | regulation of multicellular organismal development | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | response to endogenous stimulus | neuron development | regulation of multicellular organismal process | regulation of cell differentiation | tissue development | glial cell differentiation | positive regulation of nervous system process | anatomical structure formation involved in morphogenesis | positive regulation of glial cell differentiation | positive regulation of neurogenesis | response to hormone | regulation of myelination | multicellular organismal process | cranial nerve structural organization | regulation of nervous system development | cell morphogenesis | positive regulation of nervous system development | gliogenesis | positive regulation of multicellular organismal process | positive regulation of gliogenesis | regulation of glial cell differentiation | anatomical structure arrangement | nerve development | regulation of neurogenesis | cell development | striated muscle tissue development | muscle tissue development | central nervous system development | cranial nerve morphogenesis | positive regulation of cellular process | head development | positive regulation of cell development | regulation of gliogenesis | rhombomere formation | rhombomere structural organization | rhombomere 3 structural organization | rhombomere 3 formation | rhombomere 5 morphogenesis | rhombomere 5 structural organization | rhombomere 5 formation | regulation of nervous system process | circulatory system development | biological regulation | regulation of cell development | positive regulation of biological process | regulation of system process | transport | myelination | ensheathment of neurons | axon ensheathment | skeletal muscle tissue development | cranial nerve development | regulation of biological process | skeletal muscle organ development | establishment of localization | brain development | muscle structure development | blood vessel development | rhythmic behavior | regulation of cellular process | cellular process | localization | response to chemical | axonogenesis | vasculature development | response to peptide hormone | system process | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | positive regulation of RNA metabolic process | positive regulation of macromolecule metabolic process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | regulation of primary metabolic process | DNA-templated transcription | positive regulation of nucleobase-containing compound metabolic process | response to insulin | regulation of RNA metabolic process | positive regulation of metabolic process | skeletal muscle cell differentiation | response to oxygen-containing compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell growth | cell growth | negative regulation of cell adhesion | regulation of growth | system development | regulation of cell adhesion | anatomical structure morphogenesis | multicellular organism development | growth | seminal vesicle epithelium development | regulation of multicellular organismal process | animal organ development | sensory perception of mechanical stimulus | regulation of sodium ion transport | negative regulation of multicellular organismal process | regulation of developmental process | regulation of smoothened signaling pathway | cell differentiation | cellular developmental process | regulation of cell development | regulation of multicellular organismal development | cell-cell adhesion | regulation of neurogenesis | cellular component organization | positive regulation of cell differentiation | anatomical structure development | neuron differentiation | cell development | regulation of cell-cell adhesion | nervous system development | developmental process | positive regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | response to abiotic stimulus | neuron development | regulation of cell differentiation | response to mechanical stimulus | tissue development | glial cell differentiation | positive regulation of glial cell differentiation | positive regulation of neurogenesis | multicellular organismal process | regulation of nervous system development | regulation of cellular component organization | positive regulation of nervous system development | positive regulation of astrocyte differentiation | gliogenesis | positive regulation of multicellular organismal process | metal ion transport | positive regulation of gliogenesis | regulation of glial cell differentiation | astrocyte differentiation | nerve development | regulation of plasma membrane bounded cell projection organization | monoatomic cation transport | central nervous system development | regulation of cell projection organization | positive regulation of cellular process | head development | gland development | positive regulation of cell development | regulation of gliogenesis | response to stress | regulation of astrocyte differentiation | monoatomic ion transport | biological regulation | positive regulation of cellular component organization | positive regulation of biological process | negative regulation of cell growth | regulation of metal ion transport | transport | regulation of biological process | positive regulation of cell projection organization | regulation of response to stimulus | export from cell | establishment of localization | brain development | regulation of blood coagulation | regulation of monoatomic ion transport | regulation of hemostasis | negative regulation of growth | regulation of coagulation | long-term synaptic potentiation | regulation of cellular process | cellular process | localization | cell surface receptor signaling pathway | sodium ion transport | regulation of biological quality | system process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | positive regulation of cell differentiation | cellular component organization | neuron differentiation | regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | cell adhesion | positive regulation of myelination | neuron projection morphogenesis | cell growth | regulation of multicellular organismal development | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | response to abiotic stimulus | cellular response to mechanical stimulus | cellular response to external stimulus | neuron development | cellular response to abiotic stimulus | cellular response to environmental stimulus | regulation of multicellular organismal process | regulation of cell differentiation | regulation of cell growth | response to mechanical stimulus | glial cell differentiation | positive regulation of nervous system process | anatomical structure formation involved in morphogenesis | positive regulation of glial cell differentiation | positive regulation of neurogenesis | regulation of myelination | multicellular organismal process | growth | regulation of nervous system development | cell morphogenesis | regulation of cellular component organization | positive regulation of nervous system development | positive regulation of astrocyte differentiation | gliogenesis | positive regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | regulation of growth | positive regulation of gliogenesis | regulation of glial cell differentiation | astrocyte differentiation | regulation of neuron differentiation | regulation of neurogenesis | cell development | regulation of plasma membrane bounded cell projection organization | developmental growth involved in morphogenesis | developmental cell growth | central nervous system development | regulation of cell projection organization | positive regulation of cellular process | positive regulation of cell development | regulation of gliogenesis | response to stress | cellular response to stress | regulation of astrocyte differentiation | regulation of nervous system process | regulation of axonogenesis | biological regulation | regulation of cell development | positive regulation of biological process | cell-cell adhesion | regulation of system process | negative regulation of cell growth | myelination | ensheathment of neurons | axon ensheathment | neuron projection extension | regulation of biological process | negative regulation of developmental process | negative regulation of growth | regulation of cellular process | cellular process | axonogenesis | regulation of biological quality | system process | developmental growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | positive regulation of cell differentiation | animal organ development | cellular component organization | neuron differentiation | regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | cell adhesion | positive regulation of myelination | neuron projection morphogenesis | cell growth | regulation of multicellular organismal development | plasma membrane bounded cell projection morphogenesis | response to steroid hormone | cell projection morphogenesis | response to abiotic stimulus | response to endogenous stimulus | neuron development | regulation of multicellular organismal process | regulation of cell differentiation | tissue development | glial cell differentiation | positive regulation of nervous system process | response to glucocorticoid | response to hormone | regulation of myelination | response to corticosteroid | multicellular organismal process | growth | cellular response to chemical stimulus | regulation of nervous system development | cell morphogenesis | gliogenesis | positive regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | response to oxygen levels | astrocyte differentiation | regulation of neuron differentiation | cell development | striated muscle tissue development | developmental growth involved in morphogenesis | developmental cell growth | muscle tissue development | central nervous system development | response to lipid | positive regulation of cellular process | response to stress | cellular response to stress | response to hypoxia | regulation of nervous system process | response to decreased oxygen levels | biological regulation | positive regulation of biological process | regulation of system process | myelination | ensheathment of neurons | axon ensheathment | neuron projection extension | cellular response to oxygen levels | skeletal muscle tissue development | regulation of biological process | skeletal muscle organ development | regulation of response to stimulus | negative regulation of developmental process | muscle structure development | long-term synaptic potentiation | regulation of cellular process | cellular process | response to chemical | regulation of biological quality | system process | developmental growth | skeletal muscle cell differentiation | positive regulation of neuron differentiation | response to oxygen-containing compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular signal transduction | cell communication | cell migration | integrin-mediated signaling pathway | regulation of cell migration | regulation of cellular process | regulation of cell motility | intracellular signaling cassette | cell motility | regulation of locomotion | response to chemical | signal transduction | response to stimulus | regulation of biological process | biological regulation | regulation of axonogenesis | locomotion | tissue development | signaling | animal organ development | positive regulation of cellular process | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | mesenchymal cell differentiation | head development | positive regulation of biological process | regulation of cell growth | cell growth | regulation of growth | system development | anatomical structure morphogenesis | multicellular organism development | growth | regulation of multicellular organismal process | mesenchyme development | regulation of developmental process | neural crest cell differentiation | cell differentiation | cellular developmental process | regulation of cell development | regulation of multicellular organismal development | regulation of neurogenesis | cellular component organization | positive regulation of cell differentiation | anatomical structure development | neuron differentiation | cell development | nervous system development | developmental process | positive regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | neuron development | regulation of cell differentiation | positive regulation of neurogenesis | multicellular organismal process | regulation of nervous system development | cell morphogenesis | regulation of cellular component organization | positive regulation of nervous system development | positive regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | regulation of plasma membrane bounded cell projection organization | developmental growth involved in morphogenesis | developmental cell growth | central nervous system development | regulation of cell projection organization | positive regulation of cell development | response to stress | positive regulation of cell migration | positive regulation of cell motility | positive regulation of cellular component organization | positive regulation of locomotion | neuron projection extension | positive regulation of cell projection organization | regulation of response to stimulus | brain development | cellular process | axonogenesis | cell surface receptor signaling pathway | regulation of biological quality | developmental growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to steroid hormone | response to hydrogen peroxide | protein localization to organelle | response to hormone | response to reactive oxygen species | response to glucose | response to hexose | response to monosaccharide | intracellular signal transduction | response to ketone | response to carbohydrate | cell communication | cell migration | response to endogenous stimulus | response to oxidative stress | regulation of cellular process | cell motility | response to lipid | localization | response to chemical | homeostatic process | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | nitrogen compound transport | biological regulation | transport | cellular response to glucose stimulus | signaling | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | animal organ development | cellular response to carbohydrate stimulus | intracellular glucose homeostasis | establishment of localization | neuron migration | neuron projection morphogenesis | protein transport | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | intracellular protein localization | system development | anatomical structure morphogenesis | multicellular organism development | regulation of multicellular organismal process | animal organ morphogenesis | cellular response to glucocorticoid stimulus | negative regulation of multicellular organismal process | cellular response to corticosteroid stimulus | regulation of developmental process | cell differentiation | cellular developmental process | Wnt signaling pathway | cellular component organization | anatomical structure development | neuron differentiation | cellular response to ketone | cell development | nervous system development | developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | neuron development | response to glucocorticoid | response to corticosteroid | multicellular organismal process | cellular response to chemical stimulus | cell morphogenesis | regulation of anatomical structure morphogenesis | cellular response to endogenous stimulus | response to stress | cellular response to stress | cellular response to chemical stress | circulatory system development | cellular response to steroid hormone stimulus | regulation of response to stimulus | negative regulation of developmental process | export from cell | cellular process | cell surface receptor signaling pathway | regulation of biological quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | animal organ development | regulation of developmental process | neurogenesis | regulation of multicellular organismal development | regulation of cell migration | response to abiotic stimulus | cell migration | response to endogenous stimulus | regulation of cell motility | regulation of multicellular organismal process | regulation of locomotion | tissue development | cell motility | anatomical structure formation involved in morphogenesis | locomotion | multicellular organismal process | growth | cellular response to chemical stimulus | positive regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | cellular response to endogenous stimulus | striated muscle tissue development | developmental growth involved in morphogenesis | muscle tissue development | positive regulation of cellular process | gland development | animal organ morphogenesis | response to stress | cellular response to stress | positive regulation of cell migration | positive regulation of cell motility | circulatory system development | biological regulation | positive regulation of biological process | positive regulation of locomotion | liver development | hepaticobiliary system development | regulation of biological process | regulation of response to stimulus | cellular response to growth factor stimulus | response to growth factor | blood vessel development | positive regulation of protein modification process | regulation of cellular process | cellular process | response to chemical | cell surface receptor signaling pathway | vasculature development | developmental growth | cellular response to fibroblast growth factor stimulus | response to fibroblast growth factor | regulation of endothelial cell migration | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | endothelial cell migration | positive regulation of RNA metabolic process | positive regulation of macromolecule metabolic process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | muscle cell proliferation | regulation of primary metabolic process | DNA-templated transcription | positive regulation of nucleobase-containing compound metabolic process | regulation of angiogenesis | regulation of vasculature development | enzyme-linked receptor protein signaling pathway | regulation of RNA metabolic process | positive regulation of metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to steroid hormone | response to hormone | response to progesterone | intracellular signal transduction | response to ketone | cell adhesion | cell communication | response to endogenous stimulus | regulation of cellular process | intracellular signaling cassette | response to lipid | response to chemical | homeostatic process | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | biological regulation | regulation of axonogenesis | signaling | positive regulation of cellular process | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | positive regulation of biological process | sensory perception of sound | cell-cell adhesion via plasma-membrane adhesion molecules | tissue homeostasis | anatomical structure homeostasis | embryo development | sensory perception of mechanical stimulus | negative regulation of cell adhesion | cellular response to stimulus | regulation of cell adhesion | cytokine production | negative regulation of biological process | anatomical structure morphogenesis | system development | multicellular organism development | regulation of multicellular organismal process | negative regulation of multicellular organismal process | regulation of developmental process | cell differentiation | cellular developmental process | regulation of cell development | regulation of multicellular organismal development | cell-cell adhesion | regulation of neurogenesis | cellular component organization | anatomical structure development | neuron differentiation | cell development | regulation of cell-cell adhesion | system process | cell morphogenesis | generation of neurons | plasma membrane bounded cell projection organization | neuron projection development | cell projection organization | nervous system development | neuron development | neurogenesis | myelination | ensheathment of neurons | axon ensheathment | cellular component organization or biogenesis | regulation of cell differentiation | negative regulation of developmental process | developmental process | regulation of nervous system development | multicellular organismal process | gastrulation | negative regulation of cell projection organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to hormone | intracellular signal transduction | collagen fibril organization | endochondral bone morphogenesis | cell adhesion | skin development | cell communication | cell migration | response to endogenous stimulus | integrin-mediated signaling pathway | regulation of cell migration | bone morphogenesis | regulation of cellular process | regulation of cell motility | intracellular signaling cassette | cell motility | regulation of locomotion | response to chemical | homeostatic process | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | biological regulation | locomotion | tissue development | cellular response to amino acid stimulus | signaling | animal organ development | cellular response to acid chemical | positive regulation of cellular process | neuron migration | response to amino acid | cartilage development | bone development | response to acid chemical | skeletal system morphogenesis | head development | positive regulation of biological process | AGE-RAGE signaling pathway in diabetic complications | Protein digestion and absorption | Amoebiasis | Platelet activation | Relaxin signaling pathway | Diabetic cardiomyopathy | Cytoskeleton in muscle cells | cellular response to transforming growth factor beta stimulus | response to transforming growth factor beta | tissue homeostasis | anatomical structure homeostasis | embryo development | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | connective tissue development | cell-substrate adhesion | small GTPase-mediated signal transduction | response to peptide hormone | cellular response to stimulus | skeletal system development | cellular response to growth factor stimulus | response to growth factor | blood vessel development | supramolecular fiber organization | vasculature development | chordate embryonic development | cytokine production | embryo development ending in birth or egg hatching | negative regulation of biological process | anatomical structure morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | positive regulation of cell differentiation | cellular component organization | neuron differentiation | regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | neuron projection morphogenesis | regulation of multicellular organismal development | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | neuron development | regulation of multicellular organismal process | regulation of cell differentiation | glial cell differentiation | positive regulation of neurogenesis | multicellular organismal process | regulation of nervous system development | cell morphogenesis | regulation of cellular component organization | positive regulation of nervous system development | gliogenesis | positive regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | regulation of neurogenesis | cell development | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | positive regulation of cellular process | positive regulation of cell development | regulation of axonogenesis | biological regulation | regulation of cell development | positive regulation of cellular component organization | positive regulation of biological process | regulation of biological process | positive regulation of cell projection organization | regulation of cellular process | cellular process | axonogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | positive regulation of cell differentiation | cellular component organization | neuron differentiation | regulation of developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron projection development | neuron projection morphogenesis | plasma membrane bounded cell projection morphogenesis | regulation of cell migration | cell projection morphogenesis | cell migration | response to endogenous stimulus | regulation of cell motility | neuron development | regulation of cell differentiation | regulation of locomotion | cell motility | locomotion | multicellular organismal process | cellular response to chemical stimulus | cell morphogenesis | regulation of neuron differentiation | cellular response to endogenous stimulus | cell development | positive regulation of cellular process | biological regulation | positive regulation of biological process | regulation of biological process | negative regulation of BMP signaling pathway | regulation of response to stimulus | cellular response to growth factor stimulus | response to growth factor | maintenance of protein location | regulation of cellular process | cellular process | localization | response to chemical | cell surface receptor signaling pathway | positive regulation of neuron differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell growth | cell growth | regulation of growth | system development | anatomical structure morphogenesis | multicellular organism development | growth | mesenchymal cell differentiation | negative regulation of hepatocyte differentiation | regulation of multicellular organismal process | animal organ morphogenesis | animal organ development | mesenchyme development | negative regulation of multicellular organismal process | regulation of developmental process | sensory organ morphogenesis | neural crest cell differentiation | cell differentiation | cellular developmental process | regulation of cell development | regulation of multicellular organismal development | Wnt signaling pathway | cellular component organization | positive regulation of cell differentiation | anatomical structure development | cell development | developmental process | positive regulation of developmental process | cellular component organization or biogenesis | regulation of cell differentiation | tissue development | multicellular organismal process | regulation of cellular component organization | positive regulation of cellular process | gland development | biological regulation | positive regulation of biological process | liver development | negative regulation of cell growth | hepaticobiliary system development | negative regulation of epithelial cell differentiation | regulation of biological process | regulation of response to stimulus | negative regulation of developmental process | negative regulation of growth | regulation of cellular process | cellular process | regulation of canonical Wnt signaling pathway | cell surface receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | multicellular organism development | anatomical structure development | nervous system development | developmental process | animal organ development | cellular component organization | cellular component organization or biogenesis | regulation of multicellular organismal process | multicellular organismal process | cranial nerve structural organization | export across plasma membrane | metal ion transport | potassium ion transport | anatomical structure arrangement | nerve development | potassium ion export across plasma membrane | monoatomic cation transport | central nervous system development | cranial nerve morphogenesis | head development | monoatomic ion transport | biological regulation | transport | potassium ion transmembrane transport | cranial nerve development | regulation of biological process | export from cell | establishment of localization | brain development | inorganic cation transmembrane transport | rhythmic behavior | regulation of cellular process | cellular process | localization | monoatomic cation transmembrane transport | regulation of biological quality | system process | transmission of nerve impulse | action potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to steroid hormone | protein localization to nucleus | response to hydrogen peroxide | protein localization to organelle | response to hormone | response to progesterone | response to reactive oxygen species | response to glucose | response to hexose | response to monosaccharide | response to ketone | response to carbohydrate | skin development | cell communication | response to endogenous stimulus | response to oxidative stress | regulation of cellular process | response to estradiol | response to lipid | localization | response to chemical | signal transduction | response to oxygen-containing compound | response to stimulus | regulation of biological process | nitrogen compound transport | response to calcium ion | biological regulation | transport | tissue development | protein import into nucleus | signaling | animal organ development | import into nucleus | establishment of localization | positive regulation of cellular process | protein transport | intracellular protein localization | response to mechanical stimulus | positive regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell growth | cell growth | regulation of growth | system development | multicellular organism development | growth | regulation of multicellular organismal process | animal organ development | collagen fibril organization | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | regulation of developmental process | cell differentiation | cellular developmental process | cardiac muscle hypertrophy | striated muscle hypertrophy | muscle hypertrophy | regulation of multicellular organismal development | cellular component organization | anatomical structure development | cell development | developmental process | cellular component organization or biogenesis | tissue development | multicellular organismal process | regulation of cellular component organization | striated muscle tissue development | developmental cell growth | muscle tissue development | circulatory system development | biological regulation | regulation of biological process | muscle structure development | regulation of cellular process | cellular process | system process | developmental growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | nervous system development | neurogenesis | multicellular organism development | cellular component organization | response to endogenous stimulus | cellular component organization or biogenesis | regulation of neuron differentiation | system development | negative regulation of microvillus assembly | regulation of thyroid gland epithelial cell proliferation | negative regulation of thyroid gland epithelial cell proliferation | thyroid gland epithelial cell proliferation | cell adhesion | anatomical structure development | regulation of multicellular organismal process | localization | animal organ development | transport | regulation of cell differentiation | negative regulation of developmental process | developmental process | establishment of localization | regulation of developmental process | multicellular organismal process | cell differentiation | cellular developmental process | regulation of plasma membrane bounded cell projection assembly | regulation of cell projection assembly | negative regulation of cell projection organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | cell communication | cell migration | regulation of cell migration | regulation of cellular process | regulation of cell motility | cell motility | regulation of locomotion | localization | regulation of biological process | visual perception | sensory perception of light stimulus | biological regulation | locomotion | transport | tissue development | animal organ development | establishment of localization | positive regulation of cellular process | positive regulation of biological process | cell-cell adhesion via plasma-membrane adhesion molecules | multicellular organism development | cellular component organization | cellular component organization or biogenesis | system development | anatomical structure development | transmission of nerve impulse | developmental process | cell junction assembly | action potential | multicellular organismal process | retina development in camera-type eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein localization to nucleus | protein localization to organelle | intracellular signal transduction | cell communication | regulation of cellular process | intracellular signaling cassette | localization | response to chemical | homeostatic process | signal transduction | response to stimulus | regulation of biological process | nitrogen compound transport | response to calcium ion | biological regulation | regulation of protein localization to nucleus | transport | protein import into nucleus | signaling | import into nucleus | establishment of localization | positive regulation of cellular process | protein transport | intracellular protein localization | sodium ion transport | positive regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | anatomical structure development | developmental process | cell differentiation | cellular developmental process | positive regulation of developmental process | cellular component organization | regulation of developmental process | cellular component organization or biogenesis | plasma membrane bounded cell projection organization | cell projection organization | anatomical structure formation involved in morphogenesis | regulation of cellular component organization | positive regulation of cellular process | biological regulation | positive regulation of cellular component organization | positive regulation of biological process | transport | regulation of biological process | establishment of localization | muscle structure development | regulation of cellular process | cellular process | localization | actin filament-based process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular process | localization | regulation of biological process | biological regulation | transport | establishment of localization | positive regulation of cellular process | sodium ion transport | positive regulation of biological process | regulation of sodium ion transport | export across plasma membrane | metal ion transport | potassium ion transport | monoatomic cation transport | monoatomic ion transport | regulation of metal ion transport | export from cell | regulation of monoatomic ion transport | inorganic cation transmembrane transport | cellular process | monoatomic cation transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | system development | anatomical structure morphogenesis | multicellular organism development | animal organ morphogenesis | animal organ development | sensory organ morphogenesis | cell differentiation | cellular developmental process | cell-cell adhesion | cellular component organization | anatomical structure development | neuron differentiation | nervous system development | developmental process | neurogenesis | cellular component organization or biogenesis | generation of neurons | anatomical structure formation involved in morphogenesis | multicellular organismal process | cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | multicellular organism development | anatomical structure development | developmental process | cell differentiation | cellular developmental process | cellular component organization | cellular component organization or biogenesis | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | tissue development | anatomical structure formation involved in morphogenesis | multicellular organismal process | collagen metabolic process | response to lipid | cellular process | response to chemical | response to oxygen-containing compound | gastrulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of multicellular organismal process | negative regulation of multicellular organismal process | cardiac muscle hypertrophy | striated muscle hypertrophy | muscle hypertrophy | system process | multicellular organismal process | response to stress | biological regulation | regulation of system process | regulation of biological process | regulation of response to stimulus | regulation of cellular process | cellular process | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | regulation of primary metabolic process | DNA-templated transcription | regulation of RNA metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell adhesion | regulation of cell migration | cell migration | regulation of cell motility | regulation of locomotion | cell motility | locomotion | cell-cell adhesion | regulation of cell-cell adhesion | positive regulation of cellular process | response to stress | biological regulation | positive regulation of biological process | regulation of biological process | regulation of cellular process | cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development | anatomical structure morphogenesis | multicellular organism development | animal organ morphogenesis | animal organ development | sensory organ morphogenesis | cell differentiation | cellular developmental process | cellular component organization | anatomical structure development | cell development | developmental process | cellular component organization or biogenesis | multicellular organismal process | cellular process | supramolecular fiber organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of sodium ion transport | metal ion transport | monoatomic cation transport | monoatomic ion transport | biological regulation | regulation of metal ion transport | transport | regulation of biological process | establishment of localization | regulation of monoatomic ion transport | localization | sodium ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of cell migration | cell migration | regulation of cell motility | regulation of locomotion | cell motility | locomotion | biological regulation | regulation of biological process | regulation of cellular process | cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular process | localization | response to stimulus | regulation of biological process | nitrogen compound transport | biological regulation | transport | establishment of localization | regulation of multicellular organismal process | multicellular organismal process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of smoothened signaling pathway | positive regulation of cellular process | biological regulation | positive regulation of biological process | regulation of biological process | regulation of response to stimulus | regulation of cellular process | cellular process | cell surface receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular component organization | cell migration | cellular component organization or biogenesis | cell motility | cell junction assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | cell adhesion | response to progesterone | regulation of response to stimulus | anatomical structure morphogenesis | response to steroid hormone | cell motility | animal organ development | cell migration | response to endogenous stimulus | regulation of response to external stimulus | system development | positive regulation of cellular process | response to hyperoxia | regulation of signal transduction | intracellular signaling cassette | anatomical structure development | regulation of cellular process | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | positive regulation of biological process | neurogenesis | positive regulation of signaling | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | regulation of developmental process | response to increased oxygen levels | multicellular organism development | response to external stimulus | response to calcium ion | developmental process | tissue development | neuron differentiation | positive regulation of signal transduction | biological regulation | cellular response to growth factor stimulus | regulation of immune system process | response to growth factor | response to oxygen levels | generation of neurons | regulation of signaling | regulation of cell differentiation | regulation of cell communication | blood vessel development | regulation of cell adhesion | vasculature development | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | positive regulation of response to stimulus | signaling | negative regulation of endothelial cell proliferation | cellular response to oxygen levels | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of cell-cell adhesion | cell-cell adhesion | potassium ion transport | positive regulation of cell communication | regulation of neuron differentiation | signal transduction | angiogenesis | negative regulation of BMP signaling pathway | response to wounding | response to mechanical stimulus | response to hormone | positive regulation of cell migration | response to ketone | positive regulation of cell population proliferation | cell surface receptor signaling pathway | cellular response to transforming growth factor beta stimulus | regulation of multicellular organismal development | muscle cell proliferation | negative regulation of developmental process | positive regulation of cell motility | response to transforming growth factor beta | maintenance of protein location | positive regulation of apoptotic process | response to stimulus | positive regulation of locomotion | regulation of vascular associated smooth muscle cell proliferation | positive regulation of programmed cell death | response to lipid | vascular associated smooth muscle cell proliferation | intracellular signal transduction | regulation of ERK1 and ERK2 cascade | blood vessel morphogenesis | negative regulation of cell migration | regulation of metabolic process | regulation of biosynthetic process | response to hypoxia | regulation of cellular response to growth factor stimulus | plasma membrane bounded cell projection organization | positive regulation of intracellular signal transduction | regulation of cell population proliferation | negative regulation of cell motility | nitric oxide biosynthetic process | ERK1 and ERK2 cascade | cell projection organization | vasculogenesis | negative regulation of locomotion | positive regulation of macromolecule metabolic process | cellular component organization | regulation of transport | nitric oxide metabolic process | cellular response to mechanical stimulus | multicellular organismal process | cellular response to external stimulus | reactive nitrogen species metabolic process | response to decreased oxygen levels | regulation of plasma membrane bounded cell projection organization | transforming growth factor beta receptor superfamily signaling pathway | response to metal ion | circulatory system development | regulation of BMP signaling pathway | regulation of cell projection organization | cellular response to chemical stimulus | negative regulation of cellular response to growth factor stimulus | regulation of lipid metabolic process | cellular component organization or biogenesis | regulation of macromolecule metabolic process | MAPK cascade | cellular response to endogenous stimulus | wound healing | cell surface receptor protein serine/threonine kinase signaling pathway | positive regulation of cation transmembrane transport | regulation of epithelial cell proliferation | regulation of intracellular signal transduction | positive regulation of macromolecule biosynthetic process | nitrogen compound transport | positive regulation of monoatomic ion transmembrane transport | regulation of gene expression | positive regulation of metabolic process | regulation of defense response | metal ion transport | regulation of endothelial cell proliferation | regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | cell population proliferation | regulation of response to stress | striated muscle tissue development | transport | negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway | localization | response to chemical | gland morphogenesis | tube morphogenesis | negative regulation of epithelial cell proliferation | epithelial cell proliferation | muscle tissue development | regulation of localization | endothelial cell proliferation | cellular response to stimulus | adaptive thermogenesis | BMP signaling pathway | positive regulation of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | cell adhesion | regulation of response to stimulus | anatomical structure morphogenesis | response to steroid hormone | cell motility | animal organ development | cell migration | response to endogenous stimulus | system development | positive regulation of cellular process | response to hyperoxia | regulation of signal transduction | anatomical structure development | regulation of cellular process | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | positive regulation of biological process | positive regulation of signaling | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | response to stress | regulation of biological process | regulation of developmental process | response to increased oxygen levels | multicellular organism development | response to external stimulus | developmental process | tissue development | positive regulation of signal transduction | biological regulation | cellular response to growth factor stimulus | response to growth factor | response to oxygen levels | regulation of signaling | regulation of cell differentiation | regulation of cell communication | blood vessel development | regulation of cell adhesion | vasculature development | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | positive regulation of response to stimulus | signaling | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | cellular response to vitamin E | positive regulation of cell communication | positive regulation of epithelial to mesenchymal transition | signal transduction | positive regulation of cell differentiation | mesenchymal cell differentiation | positive regulation of developmental process | response to mechanical stimulus | response to hormone | positive regulation of cell migration | cell surface receptor signaling pathway | collagen biosynthetic process | cellular response to transforming growth factor beta stimulus | positive regulation of cell motility | response to transforming growth factor beta | response to stimulus | positive regulation of locomotion | response to lipid | negative regulation of cell adhesion | regulation of metabolic process | mesenchyme development | regulation of biosynthetic process | skin development | positive regulation of macromolecule metabolic process | cellular component organization | cellular response to mechanical stimulus | protein localization to nucleus | multicellular organismal process | cellular response to external stimulus | regulation of epithelial to mesenchymal transition | circulatory system development | cellular response to fibroblast growth factor stimulus | cellular response to chemical stimulus | cellular component organization or biogenesis | regulation of macromolecule metabolic process | response to fibroblast growth factor | cellular response to endogenous stimulus | response to hydrogen peroxide | response to estradiol | positive regulation of macromolecule biosynthetic process | nitrogen compound transport | collagen metabolic process | regulation of gene expression | positive regulation of metabolic process | regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | transport | localization | response to chemical | epithelial to mesenchymal transition | cellular response to stimulus | sensory perception of sound | sensory perception of mechanical stimulus | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | positive regulation of RNA metabolic process | positive regulation of nucleobase-containing compound metabolic process | cell surface receptor protein tyrosine kinase signaling pathway | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | animal organ morphogenesis | collagen fibril organization | endochondral bone morphogenesis | head development | bone morphogenesis | Protein digestion and absorption | Cytoskeleton in muscle cells | AGE-RAGE signaling pathway in diabetic complications | Amoebiasis | Platelet activation | Relaxin signaling pathway | cellular response to amino acid stimulus | cellular response to acid chemical | response to amino acid | cartilage development | bone development | response to acid chemical | skeletal system morphogenesis | connective tissue development | embryo development | cell-substrate adhesion | response to peptide hormone | skeletal system development | homeostatic process | response to oxygen-containing compound | chordate embryonic development | embryo development ending in birth or egg hatching | Diabetic cardiomyopathy | PI3K-Akt signaling pathway | Wnt signaling pathway | cellular response to glucose stimulus | cellular response to hexose stimulus | cellular response to monosaccharide stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | regulation of response to stimulus | anatomical structure morphogenesis | cell motility | animal organ development | cell migration | response to endogenous stimulus | regulation of response to external stimulus | system development | positive regulation of cellular process | regulation of signal transduction | intracellular signaling cassette | anatomical structure development | regulation of cellular process | positive regulation of biological process | neurogenesis | positive regulation of signaling | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | regulation of developmental process | multicellular organism development | response to external stimulus | developmental process | tissue development | positive regulation of signal transduction | biological regulation | cellular response to growth factor stimulus | response to growth factor | regulation of signaling | regulation of cell communication | blood vessel development | vasculature development | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | positive regulation of response to stimulus | signaling | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | positive regulation of cell communication | signal transduction | angiogenesis | positive regulation of developmental process | response to wounding | positive regulation of cell migration | positive regulation of cell population proliferation | cell surface receptor signaling pathway | regulation of multicellular organismal development | developmental growth involved in morphogenesis | muscle cell proliferation | positive regulation of cell motility | response to stimulus | positive regulation of locomotion | intracellular signal transduction | regulation of ERK1 and ERK2 cascade | blood vessel morphogenesis | regulation of metabolic process | regulation of biosynthetic process | regulation of cellular response to growth factor stimulus | positive regulation of intracellular signal transduction | regulation of cell population proliferation | ERK1 and ERK2 cascade | vasculogenesis | regulation of steroid biosynthetic process | positive regulation of macromolecule metabolic process | multicellular organismal process | circulatory system development | cellular response to fibroblast growth factor stimulus | cellular response to chemical stimulus | regulation of lipid metabolic process | regulation of macromolecule metabolic process | response to fibroblast growth factor | MAPK cascade | cellular response to endogenous stimulus | wound healing | regulation of epithelial cell proliferation | regulation of steroid metabolic process | regulation of intracellular signal transduction | positive regulation of macromolecule biosynthetic process | regulation of gene expression | positive regulation of metabolic process | regulation of macromolecule biosynthetic process | chemotaxis | taxis | positive regulation of biosynthetic process | cell population proliferation | striated muscle tissue development | response to chemical | gland morphogenesis | positive regulation of catalytic activity | tube morphogenesis | epithelial cell proliferation | muscle tissue development | cellular response to stimulus | regulation of endothelial cell migration | endothelial cell migration | regulation of angiogenesis | regulation of vasculature development | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | positive regulation of RNA metabolic process | positive regulation of nucleobase-containing compound metabolic process | cell surface receptor protein tyrosine kinase signaling pathway | regulation of DNA-templated transcription | regulation of RNA biosynthetic process | animal organ morphogenesis | growth | regulation of cell division | developmental growth | cardiac muscle tissue growth | heart growth | lung development | respiratory tube development | respiratory system development | heart development | tissue morphogenesis | PI3K-Akt signaling pathway | regionalization | pattern specification process | gland development | liver development | hepaticobiliary system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | cell adhesion | regulation of response to stimulus | anatomical structure morphogenesis | cell motility | animal organ development | cell migration | response to endogenous stimulus | system development | positive regulation of cellular process | intracellular signaling cassette | anatomical structure development | regulation of cellular process | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | positive regulation of biological process | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | response to stress | regulation of biological process | regulation of developmental process | multicellular organism development | developmental process | tissue development | biological regulation | cellular response to growth factor stimulus | regulation of immune system process | response to growth factor | response to oxygen levels | regulation of cell differentiation | blood vessel development | regulation of cell adhesion | vasculature development | anatomical structure formation involved in morphogenesis | response to abiotic stimulus | positive regulation of response to stimulus | signaling | negative regulation of endothelial cell proliferation | cellular response to oxygen levels | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of cell-cell adhesion | negative regulation of exit from mitosis | regulation of anatomical structure morphogenesis | cell-cell adhesion | positive regulation of epithelial to mesenchymal transition | signal transduction | positive regulation of cell differentiation | angiogenesis | mesenchymal cell differentiation | positive regulation of developmental process | positive regulation of cell population proliferation | cell surface receptor signaling pathway | collagen biosynthetic process | cellular response to transforming growth factor beta stimulus | regulation of multicellular organismal development | muscle cell proliferation | negative regulation of developmental process | response to transforming growth factor beta | positive regulation of apoptotic process | response to stimulus | regulation of vascular associated smooth muscle cell proliferation | positive regulation of programmed cell death | vascular associated smooth muscle cell proliferation | intracellular signal transduction | blood vessel morphogenesis | negative regulation of cell adhesion | negative regulation of cell migration | regulation of metabolic process | mesenchyme development | regulation of biosynthetic process | response to hypoxia | regulation of cell population proliferation | negative regulation of cell motility | negative regulation of locomotion | positive regulation of macromolecule metabolic process | cellular component organization | regulation of transport | multicellular organismal process | response to decreased oxygen levels | regulation of epithelial to mesenchymal transition | transforming growth factor beta receptor superfamily signaling pathway | circulatory system development | cellular response to chemical stimulus | cellular component organization or biogenesis | regulation of macromolecule metabolic process | cellular response to endogenous stimulus | cell surface receptor protein serine/threonine kinase signaling pathway | regulation of epithelial cell proliferation | positive regulation of macromolecule biosynthetic process | collagen metabolic process | regulation of cytokine production | regulation of gene expression | cytokine production | positive regulation of metabolic process | regulation of endothelial cell proliferation | regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | cell population proliferation | transport | localization | cellular response to hypoxia | response to chemical | tube morphogenesis | negative regulation of epithelial cell proliferation | epithelial cell proliferation | regulation of localization | epithelial to mesenchymal transition | endothelial cell proliferation | cellular response to stimulus | positive regulation of transport | regulation of endothelial cell migration | negative regulation of cell-cell adhesion | endothelial cell migration | regulation of angiogenesis | regulation of vasculature development | positive regulation of DNA-templated transcription | positive regulation of RNA biosynthetic process | positive regulation of RNA metabolic process | positive regulation of nucleobase-containing compound metabolic process | positive regulation of cytokine production | regulation of DNA-templated transcription | regulation of RNA biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | regulation of response to stimulus | anatomical structure morphogenesis | cell motility | animal organ development | cell migration | regulation of response to external stimulus | system development | positive regulation of cellular process | regulation of signal transduction | intracellular signaling cassette | anatomical structure development | regulation of cellular process | positive regulation of biological process | neurogenesis | positive regulation of signaling | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | regulation of developmental process | multicellular organism development | response to external stimulus | developmental process | tissue development | neuron differentiation | positive regulation of signal transduction | biological regulation | regulation of immune system process | generation of neurons | regulation of signaling | regulation of cell differentiation | regulation of cell communication | positive regulation of response to stimulus | signaling | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | positive regulation of cell communication | signal transduction | positive regulation of cell differentiation | mesenchymal cell differentiation | positive regulation of developmental process | positive regulation of cell migration | cell surface receptor signaling pathway | regulation of multicellular organismal development | developmental growth involved in morphogenesis | positive regulation of cell motility | response to stimulus | positive regulation of locomotion | intracellular signal transduction | regulation of ERK1 and ERK2 cascade | regulation of metabolic process | mesenchyme development | regulation of biosynthetic process | plasma membrane bounded cell projection organization | positive regulation of intracellular signal transduction | neuron projection development | ERK1 and ERK2 cascade | cell projection organization | positive regulation of macromolecule metabolic process | cellular component organization | neuron projection morphogenesis | multicellular organismal process | regulation of plasma membrane bounded cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | regulation of cell projection organization | cellular component organization or biogenesis | regulation of macromolecule metabolic process | MAPK cascade | neuron development | regulation of intracellular signal transduction | positive regulation of macromolecule biosynthetic process | regulation of cytokine production | regulation of gene expression | cytokine production | positive regulation of metabolic process | regulation of defense response | regulation of macromolecule biosynthetic process | chemotaxis | taxis | positive regulation of biosynthetic process | regulation of response to stress | response to chemical | cellular response to stimulus | regulation of axonogenesis | cell growth | growth | developmental growth | regulation of nervous system development | developmental cell growth | head development | integrin-mediated signaling pathway | regulation of cell growth | regulation of neurogenesis | positive regulation of neurogenesis | positive regulation of nervous system development | cell development | cell morphogenesis | positive regulation of cell development | regulation of cell development | regulation of growth | central nervous system development | neuron projection extension | axonogenesis | regulation of neuron projection development | axon development | cell morphogenesis involved in neuron differentiation | positive regulation of axonogenesis | brain development | neural crest cell differentiation | regulation of axon extension | regulation of cellular component organization | regulation of developmental growth | regulation of extent of cell growth | axon extension | positive regulation of cell projection organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of response to stimulus | anatomical structure morphogenesis | response to steroid hormone | animal organ development | response to endogenous stimulus | system development | positive regulation of cellular process | regulation of signal transduction | intracellular signaling cassette | anatomical structure development | regulation of cellular process | positive regulation of biological process | neurogenesis | positive regulation of signaling | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | regulation of developmental process | multicellular organism development | developmental process | tissue development | neuron differentiation | positive regulation of signal transduction | biological regulation | response to oxygen levels | generation of neurons | regulation of signaling | regulation of cell differentiation | regulation of cell communication | response to abiotic stimulus | positive regulation of response to stimulus | signaling | cellular response to oxygen levels | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of anatomical structure morphogenesis | positive regulation of cell communication | regulation of neuron differentiation | signal transduction | positive regulation of cell differentiation | positive regulation of developmental process | response to hormone | positive regulation of cell population proliferation | regulation of multicellular organismal development | developmental growth involved in morphogenesis | negative regulation of developmental process | positive regulation of apoptotic process | response to stimulus | positive regulation of programmed cell death | response to lipid | intracellular signal transduction | regulation of metabolic process | regulation of biosynthetic process | response to hypoxia | plasma membrane bounded cell projection organization | positive regulation of intracellular signal transduction | regulation of cell population proliferation | neuron projection development | cell projection organization | cellular component organization | neuron projection morphogenesis | multicellular organismal process | response to decreased oxygen levels | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | cellular response to chemical stimulus | cellular component organization or biogenesis | regulation of macromolecule metabolic process | positive regulation of neuron differentiation | neuron development | regulation of intracellular signal transduction | regulation of cytokine production | regulation of gene expression | cytokine production | regulation of macromolecule biosynthetic process | cell population proliferation | striated muscle tissue development | cellular response to hypoxia | response to chemical | muscle tissue development | cellular response to stimulus | adaptive thermogenesis | cell growth | growth | developmental growth | regulation of nervous system development | developmental cell growth | astrocyte differentiation | gliogenesis | positive regulation of myelination | glial cell differentiation | positive regulation of nervous system process | cell development | cell morphogenesis | regulation of myelination | central nervous system development | regulation of nervous system process | myelination | ensheathment of neurons | axon ensheathment | neuron projection extension | skeletal muscle cell differentiation | muscle structure development | behavior | response to glucocorticoid | response to corticosteroid | negative regulation of cellular process | negative regulation of cell differentiation | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | regulation of developmental process | system development | positive regulation of cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | neurogenesis | neuron projection morphogenesis | regulation of multicellular organismal process | plasma membrane bounded cell projection morphogenesis | positive regulation of myelination | cell projection morphogenesis | regulation of multicellular organismal development | nervous system development | neuron projection development | developmental process | neuron differentiation | cell growth | glial cell differentiation | generation of neurons | regulation of cell differentiation | plasma membrane bounded cell projection organization | positive regulation of neurogenesis | cell projection organization | regulation of nervous system development | neuron development | cellular component organization | positive regulation of nervous system development | positive regulation of nervous system process | cellular component organization or biogenesis | positive regulation of glial cell differentiation | gliogenesis | growth | cell development | cell morphogenesis | regulation of myelination | regulation of cell growth | regulation of neurogenesis | positive regulation of gliogenesis | positive regulation of cell development | regulation of glial cell differentiation | astrocyte differentiation | regulation of anatomical structure morphogenesis | positive regulation of multicellular organismal process | developmental growth involved in morphogenesis | positive regulation of astrocyte differentiation | developmental cell growth | regulation of cell development | cell adhesion | regulation of growth | central nervous system development | regulation of gliogenesis | regulation of nervous system process | regulation of axonogenesis | multicellular organismal process | anatomical structure formation involved in morphogenesis | regulation of astrocyte differentiation | negative regulation of cell growth | developmental growth | myelination | ensheathment of neurons | axon ensheathment | neuron projection extension | axonogenesis | negative regulation of growth | positive regulation of cellular process | regulation of neuron differentiation | regulation of neuron projection development | axon development | response to mechanical stimulus | positive regulation of biological process | cell morphogenesis involved in neuron differentiation | regulation of biological process | regulation of plasma membrane bounded cell projection organization | regulation of axon extension | cellular response to mechanical stimulus | cellular response to external stimulus | regulation of cell projection organization | biological regulation | response to abiotic stimulus | regulation of cellular component organization | regulation of developmental growth | transmission of nerve impulse | regulation of extent of cell growth | axon extension | regulation of cellular process | negative regulation of developmental process | negative regulation of cell projection organization | cell-cell adhesion via plasma-membrane adhesion molecules | negative regulation of neuron projection development | cell communication | cell-cell adhesion | negative regulation of axonogenesis | axon regeneration | neuron projection regeneration | negative regulation of neuron differentiation | response to axon injury | negative regulation of cellular process | negative regulation of cellular component organization | negative regulation of cell differentiation | negative regulation of biological process | response to external stimulus | response to stimulus | Cell adhesion molecule (CAM) interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | collagen fibril organization | regulation of cell migration | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | regulation of cell motility | growth | tissue development | regulation of locomotion | cell differentiation | cellular developmental process | response to abiotic stimulus | locomotion | developmental growth | animal organ development | system development | nervous system development | neurogenesis | muscle tissue development | positive regulation of cell communication | positive regulation of signaling | anatomical structure morphogenesis | response to hormone | cell migration | response to endogenous stimulus | positive regulation of signal transduction | endochondral bone morphogenesis | tissue homeostasis | anatomical structure homeostasis | generation of neurons | multicellular organism development | response to stress | positive regulation of cellular process | skin development | intracellular signaling cassette | cell motility | head development | anatomical structure development | integrin-mediated signaling pathway | gliogenesis | bone morphogenesis | regulation of biological process | wound healing | positive regulation of biological process | cell surface receptor signaling pathway | cytokine production | biological regulation | Protein digestion and absorption | Cytoskeleton in muscle cells | AGE-RAGE signaling pathway in diabetic complications | Amoebiasis | Platelet activation | Relaxin signaling pathway | cellular response to growth factor stimulus | response to growth factor | blood vessel development | vasculature development | cellular response to amino acid stimulus | cellular response to acid chemical | response to amino acid | cartilage development | enzyme-linked receptor protein signaling pathway | bone development | response to acid chemical | lung development | respiratory tube development | skeletal system morphogenesis | animal organ morphogenesis | cellular response to transforming growth factor beta stimulus | respiratory system development | response to transforming growth factor beta | circulatory system development | anatomical structure formation involved in morphogenesis | connective tissue development | embryo development | cellular response to endogenous stimulus | cell-substrate adhesion | response to stimulus | response to peptide hormone | skeletal system development | response to wounding | homeostatic process | response to oxygen-containing compound | regulation of response to stimulus | blood vessel morphogenesis | heart development | tissue morphogenesis | regulation of cellular process | positive regulation of response to stimulus | chordate embryonic development | cellular response to chemical stimulus | embryo development ending in birth or egg hatching | Diabetic cardiomyopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | response to progesterone | anatomical structure morphogenesis | response to steroid hormone | response to endogenous stimulus | system development | positive regulation of cellular process | intracellular signaling cassette | anatomical structure development | regulation of cellular process | positive regulation of biological process | neurogenesis | cell differentiation | cellular developmental process | nervous system development | regulation of biological process | regulation of developmental process | multicellular organism development | developmental process | neuron differentiation | biological regulation | generation of neurons | regulation of cell differentiation | regulation of cell adhesion | signaling | cell communication | positive regulation of multicellular organismal process | regulation of multicellular organismal process | regulation of cell-cell adhesion | regulation of anatomical structure morphogenesis | cell-cell adhesion | signal transduction | response to hormone | response to ketone | regulation of multicellular organismal development | negative regulation of developmental process | response to stimulus | response to lipid | intracellular signal transduction | negative regulation of cell adhesion | regulation of metabolic process | regulation of biosynthetic process | plasma membrane bounded cell projection organization | neuron projection development | cell projection organization | positive regulation of macromolecule metabolic process | cellular component organization | neuron projection morphogenesis | multicellular organismal process | regulation of plasma membrane bounded cell projection organization | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | regulation of cell projection organization | cellular component organization or biogenesis | regulation of macromolecule metabolic process | MAPK cascade | neuron development | positive regulation of macromolecule biosynthetic process | regulation of cytokine production | regulation of gene expression | cytokine production | positive regulation of metabolic process | regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | response to chemical | negative regulation of neuron projection development | cellular response to stimulus | regulation of axonogenesis | negative regulation of cell-cell adhesion | sensory perception of sound | sensory perception of mechanical stimulus | positive regulation of cytokine production | regulation of nervous system development | tissue homeostasis | anatomical structure homeostasis | regulation of neurogenesis | embryo development | homeostatic process | response to oxygen-containing compound | negative regulation of cell projection organization | cell-cell adhesion via plasma-membrane adhesion molecules | cell morphogenesis | myelination | ensheathment of neurons | axon ensheathment | negative regulation of axonogenesis | regulation of neuron projection development | axon development | negative regulation of cellular process | negative regulation of cellular component organization | negative regulation of cell differentiation | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | regulation of sodium ion transport | growth | tissue development | cell differentiation | cellular developmental process | response to abiotic stimulus | animal organ development | system development | nervous system development | neurogenesis | positive regulation of cell communication | positive regulation of signaling | cell growth | seminal vesicle epithelium development | regulation of nervous system development | anatomical structure morphogenesis | regulation of multicellular organismal development | sodium ion transport | response to mechanical stimulus | generation of neurons | sensory perception of mechanical stimulus | negative regulation of cell adhesion | multicellular organism development | regulation of multicellular organismal process | response to stress | positive regulation of cellular process | intracellular signaling cassette | positive regulation of multicellular organismal process | astrocyte differentiation | regulation of smoothened signaling pathway | regulation of developmental process | head development | regulation of cell adhesion | anatomical structure development | regulation of metal ion transport | gliogenesis | regulation of biological process | wound healing | positive regulation of biological process | cell surface receptor signaling pathway | regulation of cell growth | positive regulation of developmental process | biological regulation | regulation of neurogenesis | regulation of monoatomic ion transport | cell-cell adhesion | positive regulation of cell differentiation | neuron projection development | developmental process | neuron differentiation | glial cell differentiation | regulation of cell differentiation | plasma membrane bounded cell projection organization | positive regulation of neurogenesis | cell projection organization | neuron development | cellular component organization | positive regulation of nervous system development | cellular component organization or biogenesis | positive regulation of glial cell differentiation | cell development | positive regulation of gliogenesis | positive regulation of cell development | regulation of glial cell differentiation | positive regulation of astrocyte differentiation | regulation of cell development | nerve development | regulation of growth | central nervous system development | regulation of gliogenesis | multicellular organismal process | regulation of astrocyte differentiation | negative regulation of cell growth | negative regulation of growth | regulation of neuron projection development | regulation of signal transduction | brain development | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | regulation of cellular component organization | behavior | metal ion transport | positive regulation of cell projection organization | regulation of signaling | regulation of cellular process | regulation of cell communication | gland development | monoatomic cation transport | export from cell | hindbrain development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | regulation of developmental process | system development | positive regulation of cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | neurogenesis | neuron projection morphogenesis | regulation of multicellular organismal process | plasma membrane bounded cell projection morphogenesis | positive regulation of myelination | cell projection morphogenesis | regulation of multicellular organismal development | nervous system development | animal organ development | neuron projection development | developmental process | neuron differentiation | glial cell differentiation | generation of neurons | regulation of cell differentiation | plasma membrane bounded cell projection organization | positive regulation of neurogenesis | cell projection organization | regulation of nervous system development | neuron development | cellular component organization | positive regulation of nervous system development | positive regulation of nervous system process | cellular component organization or biogenesis | positive regulation of glial cell differentiation | gliogenesis | cell development | cell morphogenesis | regulation of myelination | regulation of neurogenesis | cranial nerve structural organization | positive regulation of gliogenesis | positive regulation of cell development | regulation of glial cell differentiation | positive regulation of multicellular organismal process | regulation of cell development | nerve development | anatomical structure arrangement | central nervous system development | tissue development | regulation of gliogenesis | cranial nerve morphogenesis | regulation of nervous system process | multicellular organismal process | head development | anatomical structure formation involved in morphogenesis | myelination | ensheathment of neurons | axon ensheathment | striated muscle tissue development | muscle tissue development | axonogenesis | rhombomere formation | rhombomere structural organization | rhombomere 3 structural organization | rhombomere 3 formation | rhombomere 5 morphogenesis | rhombomere 5 structural organization | rhombomere 5 formation | positive regulation of cellular process | axon development | cranial nerve development | response to endogenous stimulus | positive regulation of biological process | rhythmic behavior | cell morphogenesis involved in neuron differentiation | regulation of biological process | skeletal muscle cell differentiation | brain development | circulatory system development | muscle structure development | biological regulation | behavior | regionalization | regulation of cellular process | pattern specification process | response to hormone | hindbrain development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | regulation of response to stimulus | anatomical structure morphogenesis | cell motility | cell migration | response to endogenous stimulus | regulation of response to external stimulus | system development | positive regulation of cellular process | regulation of signal transduction | anatomical structure development | regulation of cellular process | positive regulation of biological process | neurogenesis | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | nervous system development | regulation of biological process | regulation of developmental process | multicellular organism development | response to external stimulus | developmental process | neuron differentiation | biological regulation | cellular response to growth factor stimulus | regulation of immune system process | response to growth factor | generation of neurons | regulation of signaling | regulation of cell differentiation | regulation of cell communication | signaling | cell communication | regulation of neuron differentiation | signal transduction | positive regulation of cell differentiation | negative regulation of BMP signaling pathway | positive regulation of developmental process | cell surface receptor signaling pathway | maintenance of protein location | response to stimulus | negative regulation of cell migration | regulation of cellular response to growth factor stimulus | plasma membrane bounded cell projection organization | negative regulation of cell motility | neuron projection development | cell projection organization | negative regulation of locomotion | cellular component organization | neuron projection morphogenesis | multicellular organismal process | plasma membrane bounded cell projection morphogenesis | transforming growth factor beta receptor superfamily signaling pathway | cell projection morphogenesis | regulation of BMP signaling pathway | cellular response to chemical stimulus | negative regulation of cellular response to growth factor stimulus | cellular component organization or biogenesis | cellular response to endogenous stimulus | positive regulation of neuron differentiation | cell surface receptor protein serine/threonine kinase signaling pathway | neuron development | chemotaxis | taxis | negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway | localization | response to chemical | cellular response to stimulus | BMP signaling pathway | cell development | cell morphogenesis | regionalization | pattern specification process | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of response to stimulus | cell motility | regulation of response to external stimulus | system development | positive regulation of cellular process | regulation of signal transduction | intracellular signaling cassette | anatomical structure development | regulation of cellular process | positive regulation of biological process | neurogenesis | positive regulation of signaling | cell differentiation | cellular developmental process | nervous system development | response to stress | regulation of biological process | regulation of developmental process | multicellular organism development | response to external stimulus | developmental process | neuron differentiation | biological regulation | generation of neurons | regulation of signaling | regulation of cell communication | signaling | cell communication | signal transduction | response to wounding | negative regulation of developmental process | response to stimulus | intracellular signal transduction | regulation of metabolic process | plasma membrane bounded cell projection organization | neuron projection development | cell projection organization | dephosphorylation | positive regulation of macromolecule metabolic process | cellular component organization | regulation of transport | multicellular organismal process | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | cellular component organization or biogenesis | regulation of macromolecule metabolic process | neuron development | regulation of intracellular signal transduction | positive regulation of metabolic process | regulation of response to stress | transport | localization | negative regulation of neuron projection development | regulation of localization | cellular response to stimulus | negative regulation of cell projection organization | regulation of neuron projection development | axon development | axon regeneration | neuron projection regeneration | response to axon injury | negative regulation of cellular process | negative regulation of cellular component organization | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | regulation of developmental process | system development | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | neurogenesis | neuron projection morphogenesis | regulation of multicellular organismal process | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | nervous system development | animal organ development | neuron projection development | developmental process | neuron differentiation | generation of neurons | plasma membrane bounded cell projection organization | cell projection organization | neuron development | cellular component organization | cellular component organization or biogenesis | cell development | cell morphogenesis | regulation of anatomical structure morphogenesis | animal organ morphogenesis | multicellular organismal process | cell migration | response to endogenous stimulus | regulation of signal transduction | regulation of biological process | response to steroid hormone | circulatory system development | cell motility | biological regulation | response to hydrogen peroxide | cell surface receptor signaling pathway | regulation of signaling | regulation of cellular process | Wnt signaling pathway | regulation of cell communication | response to glucocorticoid | response to hormone | response to corticosteroid | negative regulation of developmental process | export from cell | cellular response to glucose stimulus | cellular response to hexose stimulus | cellular response to monosaccharide stimulus | cell communication | regulation of response to stimulus | response to ketone | response to lipid | negative regulation of cellular process | negative regulation of biological process | response to stimulus | transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | regulation of developmental process | system development | positive regulation of cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | neurogenesis | neuron projection morphogenesis | regulation of multicellular organismal process | plasma membrane bounded cell projection morphogenesis | cell projection morphogenesis | regulation of multicellular organismal development | nervous system development | neuron projection development | developmental process | neuron differentiation | glial cell differentiation | generation of neurons | regulation of cell differentiation | plasma membrane bounded cell projection organization | positive regulation of neurogenesis | cell projection organization | regulation of nervous system development | neuron development | cellular component organization | positive regulation of nervous system development | cellular component organization or biogenesis | gliogenesis | cell development | cell morphogenesis | regulation of neurogenesis | positive regulation of cell development | regulation of anatomical structure morphogenesis | positive regulation of multicellular organismal process | regulation of cell development | regulation of axonogenesis | multicellular organismal process | axonogenesis | positive regulation of cellular process | regulation of neuron projection development | axon development | positive regulation of biological process | cell morphogenesis involved in neuron differentiation | regulation of biological process | positive regulation of axonogenesis | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | biological regulation | regulation of cellular component organization | positive regulation of cell projection organization | regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to progesterone | response to steroid hormone | animal organ development | response to endogenous stimulus | positive regulation of cellular process | anatomical structure development | regulation of cellular process | positive regulation of biological process | enzyme-linked receptor protein signaling pathway | cell differentiation | cellular developmental process | response to stress | regulation of biological process | response to external stimulus | response to calcium ion | developmental process | tissue development | biological regulation | response to abiotic stimulus | signaling | cell communication | signal transduction | response to mechanical stimulus | response to hormone | response to ketone | cell surface receptor signaling pathway | positive regulation of apoptotic process | response to stimulus | positive regulation of programmed cell death | response to lipid | regulation of metabolic process | regulation of biosynthetic process | regulation of cell population proliferation | skin development | protein localization to nucleus | response to metal ion | regulation of macromolecule metabolic process | response to hydrogen peroxide | response to estradiol | nitrogen compound transport | regulation of gene expression | regulation of macromolecule biosynthetic process | cell population proliferation | transport | localization | response to chemical | cellular response to stimulus | regulation of cell division | negative regulation of cellular process | negative regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of response to stimulus | positive regulation of cellular process | regulation of signal transduction | intracellular signaling cassette | regulation of cellular process | positive regulation of biological process | positive regulation of signaling | regulation of biological process | response to calcium ion | positive regulation of signal transduction | biological regulation | regulation of signaling | regulation of cell communication | positive regulation of response to stimulus | signaling | cell communication | positive regulation of cell communication | signal transduction | positive regulation of cell population proliferation | response to stimulus | intracellular signal transduction | regulation of metabolic process | regulation of biosynthetic process | positive regulation of intracellular signal transduction | regulation of cell population proliferation | dephosphorylation | positive regulation of macromolecule metabolic process | regulation of transport | protein localization to nucleus | response to metal ion | cellular response to chemical stimulus | regulation of macromolecule metabolic process | regulation of intracellular signal transduction | positive regulation of macromolecule biosynthetic process | nitrogen compound transport | regulation of gene expression | positive regulation of metabolic process | metal ion transport | regulation of macromolecule biosynthetic process | positive regulation of biosynthetic process | cell population proliferation | transport | localization | response to chemical | positive regulation of catalytic activity | regulation of localization | cellular response to stimulus | positive regulation of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | regulation of developmental process | system development | positive regulation of cell differentiation | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | regulation of multicellular organismal process | regulation of multicellular organismal development | animal organ development | developmental process | cell growth | regulation of cell differentiation | cellular component organization | cellular component organization or biogenesis | growth | cell development | regulation of cell growth | regulation of cell development | regulation of growth | tissue development | animal organ morphogenesis | multicellular organismal process | negative regulation of cell growth | negative regulation of hepatocyte differentiation | negative regulation of growth | positive regulation of cellular process | mesenchymal cell differentiation | positive regulation of biological process | regulation of signal transduction | mesenchyme development | regulation of biological process | sensory organ morphogenesis | neural crest cell differentiation | biological regulation | regulation of cellular component organization | cell surface receptor signaling pathway | regulation of signaling | regulation of cellular process | Wnt signaling pathway | regulation of cell communication | gland development | liver development | negative regulation of developmental process | hepaticobiliary system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron differentiation | generation of neurons | anatomical structure development | cell adhesion | neurogenesis | nervous system development | negative regulation of cell projection organization | multicellular organism development | system development | regulation of neuron differentiation | developmental process | plasma membrane bounded cell projection organization | cell projection organization | cellular component organization | animal organ development | cell differentiation | cellular developmental process | negative regulation of developmental process | cellular component organization or biogenesis | regulation of plasma membrane bounded cell projection organization | regulation of cell projection organization | cell communication | multicellular organismal process | negative regulation of microvillus assembly | regulation of thyroid gland epithelial cell proliferation | negative regulation of thyroid gland epithelial cell proliferation | thyroid gland epithelial cell proliferation | cell-cell adhesion | regulation of response to stimulus | regulation of developmental process | regulation of biological process | biological regulation | response to endogenous stimulus | regulation of signaling | regulation of cell communication | regulation of cell differentiation | regulation of signal transduction | negative regulation of neuron differentiation | negative regulation of cellular process | regulation of cellular process | negative regulation of cellular component organization | regulation of multicellular organismal process | negative regulation of cell differentiation | intracellular signaling cassette | negative regulation of biological process | response to stimulus | transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | collagen fibril organization | extracellular matrix organization | external encapsulating structure organization | extracellular structure organization | growth | tissue development | cell differentiation | cellular developmental process | developmental growth | animal organ development | system development | muscle tissue development | cell growth | regulation of multicellular organismal development | developmental cell growth | tissue homeostasis | anatomical structure homeostasis | multicellular organism development | regulation of multicellular organismal process | regulation of developmental process | anatomical structure development | regulation of biological process | cardiac muscle tissue growth | cardiac muscle hypertrophy | regulation of cell growth | striated muscle hypertrophy | muscle hypertrophy | heart growth | biological regulation | striated muscle tissue development | Protein digestion and absorption | developmental process | cellular component organization | cellular component organization or biogenesis | cell development | regulation of growth | multicellular organismal process | circulatory system development | muscle structure development | regulation of cellular component organization | regulation of developmental growth | regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | animal organ development | system development | anatomical structure development | regulation of cellular process | nervous system development | regulation of biological process | multicellular organism development | developmental process | biological regulation | signaling | cell communication | regulation of multicellular organismal process | potassium ion transport | export across plasma membrane | cellular component organization | regulation of transport | multicellular organismal process | cellular component organization or biogenesis | nitrogen compound transport | metal ion transport | transport | localization | regulation of localization | cranial nerve structural organization | nerve development | anatomical structure arrangement | central nervous system development | cranial nerve morphogenesis | head development | cranial nerve development | rhythmic behavior | brain development | transmission of nerve impulse | behavior | monoatomic cation transport | export from cell | regulation of presynaptic membrane potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of response to stimulus | animal organ development | regulation of response to external stimulus | anatomical structure development | regulation of cellular process | cell differentiation | cellular developmental process | response to stress | regulation of biological process | response to external stimulus | developmental process | tissue development | biological regulation | regulation of immune system process | response to wounding | response to stimulus | regulation of metabolic process | regulation of biosynthetic process | skin development | cellular component organization | multicellular organismal process | cellular component organization or biogenesis | regulation of macromolecule metabolic process | wound healing | regulation of gene expression | regulation of defense response | regulation of macromolecule biosynthetic process | regulation of response to stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure development | cell adhesion | multicellular organism development | system development | developmental process | cell-cell adhesion via plasma-membrane adhesion molecules | transmission of nerve impulse | cellular component organization | animal organ development | cellular component organization or biogenesis | cell communication | cell motility | multicellular organismal process | cell-cell adhesion | regulation of biological process | regulation of cell motility | cell migration | biological regulation | regulation of locomotion | negative regulation of cellular process | regulation of cellular process | negative regulation of biological process | locomotion | transport | Cell adhesion molecule (CAM) interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion | anatomical structure morphogenesis | animal organ development | system development | anatomical structure development | neurogenesis | cell differentiation | cellular developmental process | nervous system development | multicellular organism development | developmental process | neuron differentiation | generation of neurons | anatomical structure formation involved in morphogenesis | cell-cell adhesion | cellular component organization | multicellular organismal process | cellular component organization or biogenesis | animal organ morphogenesis | sensory organ morphogenesis | eye morphogenesis | cell-cell adhesion via plasma-membrane adhesion molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular process | regulation of cellular process | positive regulation of biological process | regulation of biological process | biological regulation | potassium ion transport | export across plasma membrane | regulation of transport | positive regulation of cation transmembrane transport | positive regulation of monoatomic ion transmembrane transport | metal ion transport | transport | localization | regulation of localization | positive regulation of transport | regulation of sodium ion transport | sodium ion transport | regulation of metal ion transport | regulation of monoatomic ion transport | monoatomic cation transport | export from cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of response to stimulus | positive regulation of cellular process | regulation of signal transduction | regulation of cellular process | positive regulation of biological process | positive regulation of signaling | regulation of biological process | positive regulation of signal transduction | biological regulation | regulation of signaling | regulation of cell communication | positive regulation of response to stimulus | signaling | cell communication | positive regulation of cell communication | signal transduction | cell surface receptor signaling pathway | response to stimulus | cellular response to stimulus | regulation of smoothened signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | positive regulation of developmental process | regulation of developmental process | cell differentiation | cellular developmental process | anatomical structure development | developmental process | plasma membrane bounded cell projection organization | cell projection organization | cellular component organization | cellular component organization or biogenesis | anatomical structure formation involved in morphogenesis | positive regulation of cellular process | positive regulation of biological process | regulation of biological process | muscle structure development | biological regulation | regulation of cellular component organization | regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of response to stimulus | regulation of response to external stimulus | regulation of cellular process | response to stress | regulation of biological process | response to external stimulus | biological regulation | regulation of immune system process | regulation of multicellular organismal process | response to stimulus | nitric oxide biosynthetic process | nitric oxide metabolic process | multicellular organismal process | reactive nitrogen species metabolic process | nitrogen compound transport | regulation of defense response | regulation of response to stress | transport | localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | cell adhesion | cell motility | cell migration | positive regulation of cellular process | regulation of cellular process | positive regulation of biological process | response to stress | regulation of biological process | biological regulation | regulation of immune system process | regulation of cell adhesion | regulation of cell-cell adhesion | cell-cell adhesion | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis | system development | cell differentiation | cellular developmental process | multicellular organism development | anatomical structure development | animal organ development | developmental process | cellular component organization | cellular component organization or biogenesis | cell development | animal organ morphogenesis | multicellular organismal process | sensory organ morphogenesis | eye morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of presynaptic membrane potential | cell communication | regulation of biological process | biological regulation | regulation of signaling | regulation of cell communication | negative regulation of cellular process | regulation of cellular process | intracellular signaling cassette | negative regulation of biological process | response to stimulus | transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure development | multicellular organism development | developmental process | anatomical structure morphogenesis | cellular component organization | cell differentiation | cellular developmental process | cellular component organization or biogenesis | multicellular organismal process | response to lipid | response to estradiol | response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell motility | regulation of locomotion | locomotion | regulation of cell migration | cell adhesion | cell motility | cell migration | regulation of cellular process | regulation of biological process | biological regulation | Cytoskeleton in muscle cells | Cell adhesion molecule (CAM) interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of multicellular organismal process | response to stress | regulation of biological process | cardiac muscle hypertrophy | striated muscle hypertrophy | muscle hypertrophy | biological regulation | response to stimulus | regulation of response to stimulus | regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell differentiation | cellular developmental process | regulation of cell division | system development | nervous system development | multicellular organism development | anatomical structure development | regulation of biological process | biological regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of sodium ion transport | sodium ion transport | regulation of metal ion transport | regulation of biological process | biological regulation | regulation of monoatomic ion transport | metal ion transport | monoatomic cation transport | transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular component organization | cellular component organization or biogenesis | cell motility | cell migration</t>
   </si>
 </sst>
 </file>
@@ -540,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -558,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0154304146830328</v>
+        <v>0.0219378629013279</v>
       </c>
     </row>
     <row r="3">
@@ -566,389 +1193,1377 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0120525737421338</v>
+        <v>0.0241807003121055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0123832296771594</v>
+        <v>0.0240454346980571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.0139096809428505</v>
+        <v>0.0247942268639107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0194798695621288</v>
+        <v>0.0194567765836063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>0.018119213679816</v>
+        <v>0.019734042024341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0156860183314414</v>
+        <v>0.0156429007393008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0115275061603699</v>
+        <v>0.0142634031479974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0163096813570679</v>
+        <v>0.0189535407673875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0158253554937738</v>
+        <v>0.027747623055912</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0125575163827331</v>
+        <v>0.0268607197096268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0235745647867411</v>
+        <v>0.0222643758800249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0305322018200395</v>
+        <v>0.0171662954613063</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0265659919804274</v>
+        <v>0.0244738826078089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0364815165794576</v>
+        <v>0.0219644871422163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="n">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0280038626541324</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0318292020792713</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.00789624694054533</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="n">
+        <v>53</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0188531241279132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0162770005455848</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="n">
+        <v>51</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0194980109078196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="n">
+        <v>51</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0220546160423896</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0193390665132433</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="n">
+        <v>39</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0159580405822207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.027989905742748</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0207742578671557</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0115892137727121</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0231523960990193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.0364815165794576</v>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0301503572902394</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0129096450979804</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="n">
+        <v>23</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0146984241773194</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="n">
+        <v>22</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0180049040788798</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="n">
+        <v>22</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0112791202048696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0289548122014462</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0363505896613382</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.029431744219477</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0200730272885181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0124753437441723</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="n">
+        <v>17</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0307298232505751</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0315281282934652</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0297568169064687</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0296796660377469</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0196944700649675</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0301440464028868</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.031398848370338</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0210833046220025</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0264858171201427</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0339889944219303</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0152602380988202</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0290134860190407</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.00737867855549079</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0231424497259003</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0249034929570778</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0317351513402901</v>
       </c>
     </row>
   </sheetData>
@@ -996,10 +2611,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -1014,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0154304146830328</v>
+        <v>0.0219378629013279</v>
       </c>
     </row>
     <row r="3">
@@ -1022,337 +2637,1377 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0120525737421338</v>
+        <v>0.0241807003121055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0123832296771594</v>
+        <v>0.0240454346980571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.0139096809428505</v>
+        <v>0.0247942268639107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0194798695621288</v>
+        <v>0.0194567765836063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>0.018119213679816</v>
+        <v>0.019734042024341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0156860183314414</v>
+        <v>0.0156429007393008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0115275061603699</v>
+        <v>0.0142634031479974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0163096813570679</v>
+        <v>0.0189535407673875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0158253554937738</v>
+        <v>0.027747623055912</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0125575163827331</v>
+        <v>0.0268607197096268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0235745647867411</v>
+        <v>0.0222643758800249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0305322018200395</v>
+        <v>0.0171662954613063</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="n">
+        <v>74</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0244738826078089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="n">
+        <v>69</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0219644871422163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="n">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0280038626541324</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0318292020792713</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.00789624694054533</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="n">
+        <v>53</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0188531241279132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0162770005455848</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="n">
+        <v>51</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0194980109078196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="n">
+        <v>51</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0220546160423896</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0193390665132433</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="n">
+        <v>39</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0159580405822207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.027989905742748</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0207742578671557</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0115892137727121</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0231523960990193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0301503572902394</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0129096450979804</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="n">
+        <v>23</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0146984241773194</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="n">
+        <v>22</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0180049040788798</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="n">
+        <v>22</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0112791202048696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0289548122014462</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0363505896613382</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.029431744219477</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0200730272885181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0124753437441723</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="n">
+        <v>17</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0307298232505751</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0315281282934652</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0297568169064687</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0296796660377469</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0196944700649675</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0301440464028868</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.031398848370338</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0210833046220025</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0264858171201427</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0339889944219303</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0152602380988202</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0290134860190407</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.00737867855549079</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0231424497259003</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0265659919804274</v>
+      <c r="G54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0249034929570778</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0317351513402901</v>
       </c>
     </row>
   </sheetData>
@@ -1397,132 +4052,1042 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
         <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0154304146830328</v>
+        <v>0.0268607197096268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0139096809428505</v>
+        <v>0.0156429007393008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0194798695621288</v>
+        <v>0.0194980109078196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0158253554937738</v>
+        <v>0.0220546160423896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0146984241773194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0196944700649675</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0301440464028868</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>175</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0241807003121055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>157</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0240454346980571</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>136</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0247942268639107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>126</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0194567765836063</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>124</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.019734042024341</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B14" t="n">
+        <v>113</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0142634031479974</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0189535407673875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>104</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.027747623055912</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="n">
+        <v>93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0222643758800249</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0171662954613063</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="n">
+        <v>65</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0280038626541324</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0318292020792713</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="n">
+        <v>56</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00789624694054533</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="n">
+        <v>52</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0162770005455848</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="n">
+        <v>45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0193390665132433</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.027989905742748</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0301503572902394</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0129096450979804</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0180049040788798</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="n">
+        <v>21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0289548122014462</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0363505896613382</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.029431744219477</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0200730272885181</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="n">
+        <v>17</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0124753437441723</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0152602380988202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0231424497259003</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="n">
+        <v>200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.0125575163827331</v>
+      <c r="H35" t="n">
+        <v>0.0219378629013279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="n">
+        <v>69</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0219644871422163</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0207742578671557</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0231523960990193</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0297568169064687</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0339889944219303</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0249034929570778</v>
       </c>
     </row>
   </sheetData>
@@ -1555,72 +5120,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="n">
+        <v>85</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>84</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>58</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="n">
+        <v>49</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="n">
         <v>48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="n">
+        <v>41</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="n">
+        <v>37</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1653,16 +5568,968 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="n">
+        <v>121</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>114</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="n">
+        <v>91</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>88</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>87</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="n">
+        <v>86</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>77</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="n">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="n">
+        <v>52</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>52</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="n">
+        <v>49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="n">
+        <v>39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="n">
+        <v>33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="n">
+        <v>17</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="n">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
@@ -1670,125 +6537,125 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -1796,55 +6663,419 @@
         <v>31</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="n">
+        <v>58</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="n">
+        <v>54</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="n">
+        <v>47</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="n">
+        <v>47</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="n">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="n">
         <v>38</v>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="n">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="n">
+        <v>19</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
